--- a/finetuning/it_datasets/it_dataset/it_marsa_dataset.xlsx
+++ b/finetuning/it_datasets/it_dataset/it_marsa_dataset.xlsx
@@ -658,7 +658,7 @@
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>If you're in al marsa and looking for a fantastic restaurant, check out Ivy Coffee Shop &amp; Restaurant located at Rue Salambo, Marsa. This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. With a rating of 4.4, it's a must-visit spot. It's open during these hours: 09:00-22:00, but closed on lundi. To get there, use these GPS coordinates: -33.8663189, 151.2076583. For more details, visit their website at https://www.facebook.com/ivyfoodanddrink/ or call them at 71 727 452.</t>
+          <t>Ivy Coffee Shop &amp; Restaurant is a highly-rated restaurant in Marsa, Tunisia, known for its brunch and cafe-style offerings. Located at V8MJ+MC9 on Rue Salambo, it serves a diverse menu including burgers, pancakes, eggs benedict, pasta, and more. With a 4.4-star rating based on 198 reviews, Ivy is a popular spot for locals and tourists alike. It is open from 9:00 AM to 10:00 PM daily, except on Mondays when it is closed.</t>
         </is>
       </c>
     </row>
@@ -761,7 +761,7 @@
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>If you're in al marsa and looking for a top-rated Cafe, check out Cafes BEN YEDDER La Marsa located at Avenue Ali Belhouane, Marsa. This destination is perfect for Cafe lovers and offers a range of categories to choose from. With a rating of 4.5, it's a must-visit spot. It's open during these hours: 06:30-20:00. To get there, use these GPS coordinates: 36.877712951962, 10.326902242107. For more details, visit their website at https://www.google.com/maps/place/Caf%C3%A9s+BEN+YEDDER+La+Marsa/data=!4m7!3m6!1s0x12e2b48d4cc3dd19:0x307bde944be30e3a!8m2!3d36.8798834!4d10.3274926!16s%2Fg%2F1yfprvkg6!19sChIJGd3DTI204hIROg7jS5TeezA?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 71 743 591.</t>
+          <t>Cafes BEN YEDDER La Marsa is a cafe located at Avenue Ali Belhouane, Marsa (coordinates: 36.877712951962, 10.326902242107). It offers a variety of pastries, including croissants aux amandes and gateaux. The cafe has a rating of 4.5 out of 5 stars on Google, and is open from 06:30 to 20:00 every day.</t>
         </is>
       </c>
     </row>
@@ -860,7 +860,7 @@
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>If you're in al marsa and looking for a great place to grab a bite and enjoy a cup of coffee, check out Grignotine Coffee Shop located at Residence Hannibal Mag CCA13 2070. This top-rated destination is perfect for Cafe lovers and offers a cozy atmosphere with friendly service. With a rating of 4.4, it's a must-visit spot. It's open during these hours: 06:30-00:00. To get there, use these GPS coordinates: 44.359469240006, 25.547107429134.</t>
+          <t>Grignotine Coffee Shop is a well-rated cafe in al marsa, Tunisia (4.4/5 from 53 reviews). It is known for its pleasant atmosphere and affordable prices. Located at Residence Hannibal Mag CCA13 2070, Marsa, the cafe is open from 6:30 AM to midnight.</t>
         </is>
       </c>
     </row>
@@ -963,7 +963,7 @@
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>If you're in al marsa and looking for something fun to do, check out PORTO COFFEE located at PORTO COFFEE, plage, 2070 Rue Salambo, La Marsa 2070. This top-rated destination is a must-visit spot with a rating of 4.3. It's open during these hours: 07:00-23:00. To get there, use these GPS coordinates: 36.883999769563, 10.331498655519.</t>
+          <t>PORTO COFFEE is a cafe located in al marsa. It is renowned for its good prices, as mentioned in customer reviews. It is open everyday from 7am to 11pm and is well rated with a 4.3 out of 5. Its coordinates are (36.883999769563, 10.331498655519).</t>
         </is>
       </c>
     </row>
@@ -1066,7 +1066,7 @@
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>If you're in Marsa and looking for a cozy cafe, check out Da Poupee located at V8MM+42J Marsa. This top-rated destination is perfect for cafe lovers and offers a range of cafe options to choose from. With a rating of 4.0, it's a must-visit spot. It's open during these hours: 06:00-00:00. To get there, use these GPS coordinates: 44.359469240006, 25.547107429134. For more details, visit their website or call them at 54 135 202.</t>
+          <t>Located at the coordinates (44.359469240006, 25.547107429134) in Marsa, Da Poupee is a cafe that offers its customers a wide range of services. Open from 6:00 AM to midnight, this popular spot boasts a 4.0 rating and has received 22 reviews. Despite not having a website, Da Poupee's featured image on Google Maps showcases its inviting ambiance.</t>
         </is>
       </c>
     </row>
@@ -1161,7 +1161,7 @@
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>If you're in al marsa and looking for a great cup of coffee, check out Cafe le Trio. This top-rated cafe is located at 102 Rue de la Mecque, Marsa. It's a must-visit spot for coffee lovers, with a rating of 4.9. To get there, use these GPS coordinates: 36.872645350169, 10.316638500361. For more details, visit their website at https://www.google.com/maps/place/Caf%C3%A9+le+Trio/data=!4m7!3m6!1s0x12e2b54d3a97afe1:0x8795d2178491e8c0!8m2!3d36.8734827!4d10.3144804!16s%2Fg%2F11k4ls39gg!19sChIJ4a-XOk214hIRwOiRhBfSlYc?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>Cafe le Trio is a cafe, in Marsa, with interesting geographical coordinates at latitude 36.872645350169 and longitude 10.316638500361.</t>
         </is>
       </c>
     </row>
@@ -1260,7 +1260,7 @@
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>If you're in al marsa and looking for a delightful tea experience, head to Essanawbar, located at W72V+RG4 Essanawbar, Omar el Mokhtar, Marsa. This top-rated destination is a haven for tea lovers, offering a relaxing atmosphere to unwind and enjoy your favorite brew. With a rating of 4.5, it's a must-visit spot for tea enthusiasts. Essanawbar is open 24 hours a day, providing the perfect escape anytime you crave a soothing cup of tea. For more details and updates, visit their website at https://www.google.com/maps/place/Essanawbar/data=!4m7!3m6!1s0x12e2b5aff4ec1dbd:0x1bfd42770f5e2c43!8m2!3d36.9020033!4d10.2938405!16s%2Fg%2F11cs1_2k3h!19sChIJvR3s9K-14hIRQyxeD3dC_Rs?authuser=0&amp;hl=fr&amp;rclk=1 or call the establishment for inquiries.</t>
+          <t>Essanawbar is a renowned tea room located in Marsa (coordinates: 44.359469240006, 25.547107429134). It offers a cozy ambiance and a delightful menu. The tea room is open 24 hours a day, providing a convenient option for tea enthusiasts. It has an impressive rating of 4.5 based on customer reviews, indicating its popularity and high quality.</t>
         </is>
       </c>
     </row>
@@ -1359,7 +1359,7 @@
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>If you're in al marsa and looking for something fun to do, check out Cafe Lavazza located at V8JG+3W2 Cafe Lavazza, Marsa. This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. With a rating of 4.1, it's a must-visit spot. It's open during these hours: 06:00-00:00. To get there, use these GPS coordinates: 44.359469240006, 25.547107429134. For more details, visit their website at https://www.google.com/maps/place/Caf%C3%A9+Lavazza/data=!4m7!3m6!1s0x12e2b4f2b4933543:0x4f23095e8d928e34!8m2!3d36.8801488!4d10.3272586!16s%2Fg%2F11dxdtlfp3!19sChIJQzWTtPK04hIRNI6SjV4JI08?authuser=0&amp;hl=fr&amp;rclk=1 or call them at nan.</t>
+          <t>Cafe Lavazza is a highly-rated establishment situated in Marsa, offering a comfortable ambiance for enjoying a relaxing beverage. Located at the coordinates (44.359469240006, 25.547107429134), the cafe is open from 6 AM to midnight every day of the week, making it a convenient spot for an early morning coffee or a late-night rendezvous. With its 4.1-star rating and positive reviews, the establishment is a popular choice for those seeking a cozy and enjoyable cafe experience in the Marsa area.</t>
         </is>
       </c>
     </row>
@@ -1458,7 +1458,7 @@
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>If you're in al marsa and looking for something fun to do, check out Uno Coffee located at V8Q7+58P Uno Coffee, Baghdad St, Marsa. This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. With a rating of 4.2, it's a must-visit spot. It's open during these hours: 06:00-00:00, but closed on []. To get there, use these GPS coordinates: 36.887914790144, 10.313473238847. For more details, visit their website at https://www.google.com/maps/place/Uno+Coffee/data=!4m7!3m6!1s0x12e2b4f9aa084d65:0x6c16caa1bbdc336!8m2!3d36.8879715!4d10.3133148!16s%2Fg%2F11gd1wvs14!19sChIJZU0Iqvm04hIRNsO9G6pswQY?authuser=0&amp;hl=fr&amp;rclk=1 or call them at nan.</t>
+          <t>Enjoy a cozy ambiance and delicious coffee at Uno Coffee, a charming cafe located on Baghdad Street in Marsa. This popular locale serves up a variety of coffee-based beverages and offers a warm and inviting atmosphere for customers to relax and socialize. Uno Coffee is a great spot to start your day or unwind after a long day, with its convenient weekday hours from 6:00 AM to midnight.</t>
         </is>
       </c>
     </row>
@@ -1561,9 +1561,7 @@
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>If you're in al marsa and looking for a great spot, check out Cafe Marsa located at V8QC+MR3, Marsa. 
-This top-rated destination is perfect for Cafe lovers and serves as a Cafe. 
-With a rating of 4.3, it's a must-visit spot. It's open during these hours: 07:00-00:00. For more details, click here https://www.google.com/maps/place/Caf%C3%A9+Marsa/data=!4m7!3m6!1s0x12e2b501511f4415:0x789be1268bdaf9db!8m2!3d36.8891334!4d10.322058!16s%2Fg%2F11fj_jrsqy!19sChIJFUQfUQG14hIR2_naiybhm3g?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 23 389 547.</t>
+          <t>Café Marsa is a local establishment with a 4.3 rating based on 3 reviews. Located at V8QC+MR3 Cafe Marsa, Marsa, it is open every day from 7:00 am to midnight. The cafe's main category is cafe, and it offers a cozy atmosphere for patrons to enjoy their coffee, tea, or pastries.</t>
         </is>
       </c>
     </row>
@@ -1662,9 +1660,7 @@
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>If you're in al marsa and looking for something fun to do, check out Cafe El Hana located at W74W+GHH. 
-This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. 
-With a rating of 4.3, it's a must-visit spot. It's open during these hours: Ouvert 24h/24, but closed on []. To get there, use these GPS coordinates: 36.9062856, 10.29648. For more details, visit their website at https://www.google.com/maps/place/Caf%C3%A9+El+Hana/data=!4m7!3m6!1s0x12e2b5b102b3978b:0xbf3e8d68e932d718!8m2!3d36.9063043!4d10.2964904!16s%2Fg%2F11g7z0qk3f!19sChIJi5ezArG14hIRGNcy6WiNPr8?authuser=0&amp;hl=fr&amp;rclk=1</t>
+          <t>Cafe El Hana is located on W74W+GHH, Marsa with coordinates (36.9062856, 10.29648). It is a cafe that serves a variety of drinks and snacks, with an average rating of 4.3. It is open 24 hours a day and offers a cozy atmosphere.</t>
         </is>
       </c>
     </row>
@@ -1763,7 +1759,7 @@
       </c>
       <c r="Y13" t="inlineStr">
         <is>
-          <t>If you're in al marsa and looking for something fun to do, check out Marsaoui cafe located at 120-118 Av. Hedi Chaker, Marsa 2070. This top-rated destination is perfect for Cafe lovers. With a rating of 5.0, it's a must-visit spot. It's open 24 hours a day, 7 days a week. To get there, use these GPS coordinates: 36.884916502463, 10.313102635701. For more details, visit their website at https://www.google.com/maps/place/Marsaoui+caf%C3%A9/data=!4m7!3m6!1s0x12e2b58f68d0b7b7:0xad986da25a49943e!8m2!3d36.8852167!4d10.3127792!16s%2Fg%2F11kjm0d06c!19sChIJt7fQaI-14hIRPpRJWqJtmK0?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>**Marsaoui Cafe** is a highly-rated cafe located in al marsa. It is open 24 hours a day, making it a convenient spot to grab a bite or a drink at any time. The cafe offers a variety of food and drinks, including coffee, tea, pastries, and sandwiches. It is also a popular spot for locals to gather and socialize.</t>
         </is>
       </c>
     </row>
@@ -1862,9 +1858,7 @@
       </c>
       <c r="Y14" t="inlineStr">
         <is>
-          <t>If you're in al marsa and looking for something fun to do, check out Cafe located at V8H4+GJX Cafe, Rue du Canada, La Marsa 2070. 
-This top-rated destination is perfect for Cafe lovers and offers a range of categories to choose from. 
-With a rating of 4.7, it's a must-visit spot. It's open during these hours: 06:00-00:00. To get there, use these GPS coordinates: 36.878871599622, 10.307318535776.</t>
+          <t>Cafe is a well-rated cafe located in Rue du Canada, La Marsa 2070. It offers a cozy atmosphere and serves delicious food. The cafe is open from 6:00 AM to 12:00 AM and is closed on Sundays.</t>
         </is>
       </c>
     </row>
@@ -1959,9 +1953,7 @@
       </c>
       <c r="Y15" t="inlineStr">
         <is>
-          <t>If you're in al marsa and looking for something fun to do, check out Cafe lalia la Marsa located at Cafe lalia la Marsa, lqhw@ l`ly@, 5 Av. Ali Balhaouene, Marsa. 
-This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. 
-With a rating of 4.3, it's a must-visit spot. For more details, visit their website at nan or call them at nan.</t>
+          <t>Cafe lalia la Marsa is a cafe located in al marsa, Tunisia. It's situated at the coordinates (44.359469240006, 25.547107429134) and offers a variety of amenities, including a cozy atmosphere, delicious coffee, and delectable pastries. The cafe has received positive reviews from customers, with an average rating of 4.3 out of 5. It's a great place to relax and enjoy a cup of coffee with friends or family.</t>
         </is>
       </c>
     </row>
@@ -2060,7 +2052,7 @@
       </c>
       <c r="Y16" t="inlineStr">
         <is>
-          <t>If you're in al marsa and looking for a great cafe, check out Le Petit Cafe located at Av. Mohamed Ali, Marsa. This top-rated destination is perfect for cafe lovers and offers a range of cafe options to choose from. With a rating of 5.0, it's a must-visit spot. It's open during these hours: 05:30-00:00. To get there, use these GPS coordinates: 36.8801754, 10.3181749.</t>
+          <t>Le Petit Cafe is a 5-star rated cafe located in al marsa, Tunisia. Le Petit Cafe is open from 5:30 AM to midnight and is known for its great reviews. The cafe is accessible via Av. Mohamed Ali and offers a wide variety of food and drinks.</t>
         </is>
       </c>
     </row>
@@ -2159,7 +2151,7 @@
       </c>
       <c r="Y17" t="inlineStr">
         <is>
-          <t>If you're in al marsa and looking for a top-rated Cafe spot, check out Cafe la corniche at V8QC+JWR Cafe la corniche, Corniche, Marsa. This place is perfect for Cafe lovers and offers a range of Cafe categories to choose from. With a rating of 4.0, it's a must-visit spot. It's open from 06:00-00:00, so plan your visit accordingly. To get there, use these GPS coordinates: 36.8839696, 10.3327681. For more details, visit their link at https://www.google.com/maps/place/Caf%C3%A9+la+corniche/data=!4m7!3m6!1s0x12e2b5f6a314f767:0xb95207ef57fca16c!8m2!3d36.8891165!4d10.3222671!16s%2Fg%2F11h0z3prtq!19sChIJZ_cUo_a14hIRbKH8V-8HUrk?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>Cafe la Corniche, located in the V8QC+JWR area of Corniche in al Marsa, offers a relaxing and cozy atmosphere with a 4.0 rating. The cafe is open daily from 6:00 AM to midnight, making it a convenient spot for locals and visitors alike. Enjoy a cup of coffee or a bite to eat while taking in the scenic views of the Corniche.</t>
         </is>
       </c>
     </row>
@@ -2262,8 +2254,7 @@
       </c>
       <c r="Y18" t="inlineStr">
         <is>
-          <t>If you're in al marsa and looking for a great Cafe, check out L'ombra cafe located at L'ombra cafe, 020, imen ibn arafa, Marsa 2078. 
-This top-rated destination is a must-visit spot with a rating of 5.0. It's open during these hours: 05:30-23:00, but closed on []. To get there, use these GPS coordinates: 36.8912394, 10.3047078. For more details, visit their website at or call them at 50 871 851.</t>
+          <t>L'ombra cafe is a highly-rated cafe known for its excellent services and offerings. It is located in Marsa, Tunisia, at the coordinates (36.8912394, 10.3047078). Situated on Imen Ibn Arafa street, it operates daily from 5:30 AM to 11:00 PM, offering a convenient schedule for customers.</t>
         </is>
       </c>
     </row>
@@ -2362,7 +2353,7 @@
       </c>
       <c r="Y19" t="inlineStr">
         <is>
-          <t>If you're in al marsa and looking for a top-rated Cafe, check out Cafe El Medina located at Avenue 14 Janvier, Marsa. This popular destination offers a range of Cafe options and has a rating of 5.0. It's open 24 hours a day, so you can visit anytime. To get there, use these GPS coordinates: 36.878380826399, 10.328395758118. For more details, visit their website at https://www.google.com/maps/place/Caf%C3%A9+El+Medina/data=!4m7!3m6!1s0x12e2b4f2b5bcf51b:0x3f677c7bc35ad36!8m2!3d36.8802964!4d10.3271072!16s%2Fg%2F11f06lh7hd!19sChIJG_W8tfK04hIRNq01vMd39gM?authuser=0&amp;hl=fr&amp;rclk=1 or call them at nan.</t>
+          <t>Cafe El Medina is a cafe located in the Avenue 14 Janvier in Marsa, Tunisia. It is open 24 hours a day and offers a variety of food and drinks. The cafe is rated 5.0 out of 5 stars on Google and has received 1 review. It is located at the coordinates (36.878380826399, 10.328395758118).</t>
         </is>
       </c>
     </row>
@@ -2465,7 +2456,7 @@
       </c>
       <c r="Y20" t="inlineStr">
         <is>
-          <t>If you're in al marsa and looking for a great Cafe, check out Cherbella Coffee located at 13 Av. Zine Ben Achour, Marsa. This top-rated destination is perfect for Cafe lovers and offers a range of categories to choose from. With a rating of 5.0, it's a must-visit spot. It's open during these hours: 06:00-23:00, but closed on []. To get there, use these GPS coordinates: 36.878463484756, 10.324766975979. For more details, visit their website at https://www.google.com/maps/place/Cherbella+Coffee/data=!4m7!3m6!1s0x12e2b55c338f05fb:0xfc81df0c82a02be7!8m2!3d36.879421!4d10.324063!16s%2Fg%2F11svqfpqk9!19sChIJ-wWPM1y14hIR5yugggzfgfw?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 24 318 911.</t>
+          <t>Cherbella Coffee is a cafe in al marsa, located at (36.878463, 10.324767) on 13 Av. Zine Ben Achour. It is open from 06:00-23:00 and has been reviewed by 1 guest with an average rating of 5.0.</t>
         </is>
       </c>
     </row>
@@ -2560,7 +2551,7 @@
       </c>
       <c r="Y21" t="inlineStr">
         <is>
-          <t>If you're in al marsa and looking for a great cafe, check out Pause Cafe located at Unnamed Road, Carthage. This top-rated destination is perfect for cafe lovers and offers a range of categories to choose from. With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 44.359469240006, 25.547107429134. For more details, visit their website or call them at 24 447 536.</t>
+          <t>Pause Cafe, an excellent cafe located in al marsa, Tunisia, offers a comfortable and welcoming ambiance to its patrons. With a rating of 5.0 stars, based on 2 reviews, this cafe is highly recommended among locals and tourists alike. The cafe's precise location is at (44.359469240006, 25.547107429134) and is easily accessible to visitors.</t>
         </is>
       </c>
     </row>
@@ -2667,9 +2658,7 @@
       </c>
       <c r="Y22" t="inlineStr">
         <is>
-          <t>If you're in al marsa and looking for a luxurious place to stay, check out Four Seasons Hotels and Resorts located at Four Seasons Hotels and Resorts, 1057 La Marsa, Gammarth 1057. 
-This top-rated destination is perfect for Hotel lovers and offers a range of categories to choose from, including Hotel, Residence hoteliere, Complexe hotelier, Spa, Lieu de mariage. 
-With a rating of 4.5, it's a must-visit spot. To get there, use these GPS coordinates: 36.9090572, 10.2886427. For more details, visit their website at https://www.fourseasons.com/tunis/%3Futm_source%3Dgoogle%26utm_medium%3Dorganicsearch%26utm_campaign%3Dtor-tsh-hre-mid-seo-na%26utm_content%3Dna-na%26utm_term%3Dna or call them at 31 260 000.</t>
+          <t>Four Seasons Hotels and Resorts is an upscale beachfront hotel in al marsa, Tunisia, offering elegant accommodations. Its amenities include a luxurious spa, an indoor-outdoor pool, and three dining options. With its convenient location (36.9090572, 10.2886427) and a 4.5-star rating based on 1249 reviews, the hotel is an excellent choice for discerning travelers seeking a combination of comfort, luxury, and proximity to the beach.</t>
         </is>
       </c>
     </row>
@@ -2776,8 +2765,7 @@
       </c>
       <c r="Y23" t="inlineStr">
         <is>
-          <t>If you're in al marsa and searching for a top-notch accommodation, consider Movenpick Gammarth situated at B P 36, Movenpick Gammarth, Av. Taieb Mhiri, La Marsa 2078. 
-This highly acclaimed hotel offers a luxurious stay for travelers seeking a comfortable and upscale experience. With a rating of 4.1 based on 1210 reviews, it's a preferred choice for visitors. To make a reservation or inquire about availability, call them at 71 741 444 or visit their website at https://movenpick.accor.com/en/africa/tunisia/tunis/hotel-tunis-gammarth.html%3Fmerchantid%3Dseo-maps-TN-B4I5%26sourceid%3Daw-cen%26utm_medium%3Dseo%2Bmaps%26utm_source%3Dgoogle%2BMaps%26utm_campaign%3Dseo%2Bmaps%26utm_content%3DGammarth-Tunis%26y_source%3D1_MTUzNjI2OTYtNzE1LWxvY2F0aW9uLndlYnNpdGU%253D.</t>
+          <t>Movenpick Gammarth, located in Al Marsa, Tunisia (36.882909179013, 10.324279094247), is a luxurious hotel known for its upscale rooms and suites. It boasts two swimming pools, restaurants with breathtaking sea views, a full-service spa, a hammam, and a fitness center. The hotel is highly rated with 1210 reviews and an average rating of 4.1. It stands out for its exceptional service, stunning ambiance, and convenient location.</t>
         </is>
       </c>
     </row>
@@ -2884,7 +2872,7 @@
       </c>
       <c r="Y24" t="inlineStr">
         <is>
-          <t>If you're in al marsa and looking for a lavish stay, check out GOLDEN CARTHAGE TUNIS located at Avenue de la Promenade les cotes de CARTHAGE, Marsa 2078. This top-rated hotel is perfect for travelers seeking comfort and offers a range of amenities to choose from. With a rating of 4.0, it's a must-visit spot. To get there, use these GPS coordinates: 36.8912394, 10.3047078. For more details, visit their website at http://www.goldencarthage.com/ or call them at 71 913 000.</t>
+          <t>GOLDEN CARTHAGE TUNIS is a 4-star high-end hotel located in al marsa. It features 3 restaurants, 3 outdoor swimming pools, a spa, free breakfast, parking and Wi-Fi. It is located at the following coordinates: (36.8912394, 10.3047078).</t>
         </is>
       </c>
     </row>
@@ -2991,7 +2979,7 @@
       </c>
       <c r="Y25" t="inlineStr">
         <is>
-          <t>If you're in al marsa and looking for a perfect hotel, check out Dar El Marsa Hotel &amp; Spa - Hotel 5 Etoiles located at Dar El Marsa Hotel &amp; Spa - Hotel 5 Etoiles, 75 Av. Habib Bourguiba, Marsa 2078. This top-rated destination has a rating of 4.0 and is a must-visit spot. To get there, use these GPS coordinates: 36.88296, 10.3278. For more details, visit their website at https://www.darelmarsa.com/%3Futm_source%3Dlocal%26utm_medium%3Dorganic%26utm_campaign%3DGMB or call them at 71 728 000.</t>
+          <t>Dar El Marsa Hotel &amp; Spa is a 5-star hotel located at Dar El Marsa Hotel &amp; Spa - Hotel 5 Etoiles, 75 Av. Habib Bourguiba, Marsa 2078, al marsa. It offers bright accommodations in a modern hotel with terrace tables, a rooftop pool, a spa, and views of the sea. The hotel has received 428 reviews and has a rating of 4.0. The nearby areas include Sidi Bou Said (6.7 km away) and Carthage (10 km away).</t>
         </is>
       </c>
     </row>
@@ -3098,7 +3086,7 @@
       </c>
       <c r="Y26" t="inlineStr">
         <is>
-          <t>If you're in al marsa and looking for something fun to do, check out CARTHAGE HILL located at 1 Av. El Esfizari, Marsa 2070. This top-rated destination is perfect for Maison d'hotes lovers and offers a range of Maison d'hotes to choose from. With a rating of 4.5, it's a must-visit spot. It's open during these hours: nan, but closed on []. To get there, use these GPS coordinates: 44.536587506988, -70.454549901879. For more details, visit their website at http://carthagehill.com/ or call them at 52 535 453.</t>
+          <t>CARTHAGE HILL, a convivial guesthouse located in al marsa (Tunisia), offers cozy rooms and suites, a rustic bungalow, and a beautiful garden. Situated at the coordinates (44.536587506988, -70.454549901879), this popular destination has received 111 reviews and boasts a 4.5-star rating.</t>
         </is>
       </c>
     </row>
@@ -3205,7 +3193,7 @@
       </c>
       <c r="Y27" t="inlineStr">
         <is>
-          <t>If you're in al marsa and looking for a charming getaway, visit Dar Souad - Boutique hotel &amp; Restaurant located at 56 Av. Zine Ben Achour, Marsa. This top-rated destination is perfect for Maison d'hotes lovers and offers a range of services including Salle de reception and Restaurant. With a rating of 4.7, it's a must-visit spot. To get there, use these GPS coordinates: 26.145949, -81.796498. For more details, visit their website at http://www.darsouad.net/ or call them at 22 800 622.</t>
+          <t>Dar Souad is a charming adults-only boutique hotel and restaurant located on Avenue Zine Ben Achour in Marsa, Tunisia. It features cozy rooms, a swimming pool, a restaurant, and a terrace. The hotel offers a highly-rated experience with a 4.7 rating and 96 reviews. The hotel's inviting atmosphere is evident in its beautiful design, providing a comfortable and relaxing stay for guests.</t>
         </is>
       </c>
     </row>
@@ -3308,7 +3296,7 @@
       </c>
       <c r="Y28" t="inlineStr">
         <is>
-          <t>If you're in al marsa and looking for a top-rated Chambre d'hotes destination, check out Dar Ennassim located at 4 Rue du Bigaradier La Marsa Ennassim, La Marsa 2070. This must-visit spot has a rating of 4.6 and offers a range of categories to choose from. To get there, use these GPS coordinates: 36.875573697908, 10.329465367985. For more details, visit their website at https://www.facebook.com/Dar-Ennassim-La-Marsa-1792950790917097/ or call them at 50 815 920.</t>
+          <t>Nestled in the serene district of La Marsa, Dar Ennassim is a charming guest house known for its elegant rooms, picturesque rooftop terrace with a swimming pool, and enchanting ambiance. With its eclectic architecture and warm hospitality, this haven offers a tranquil escape just a stone's throw away from the captivating city of Tunis.</t>
         </is>
       </c>
     </row>
@@ -3415,7 +3403,7 @@
       </c>
       <c r="Y29" t="inlineStr">
         <is>
-          <t>If you're in al marsa and looking for a great place to stay, check out Dar Corniche La Marsa located at 3 Rue Abou Tammam La Marsa Corniche, 2070. This top-rated Maison d'hotes is perfect for those looking for a relaxing getaway and offers a range of amenities to choose from. With a rating of 4.9, it's a must-visit spot for tourists and locals alike. To get there, use these GPS coordinates: 36.882116147014, 10.339226290709. For more details, visit their website at http://www.darcornichelamarsa.com/ or call them at 97 652 561.</t>
+          <t>Dar Corniche La Marsa is an adults-only hotel in al marsa, Tunisia, offering a privileged view of the sea. Located at 3 Rue Abou Tammam La Marsa Corniche, 2070, it provides guests with a comfortable stay in its elegant rooms. The hotel features a lounge, a terrace, and an outdoor pool for relaxation and recreation. With outstanding reviews and a rating of 4.9, it stands out for its excellent service and attention to detail.</t>
         </is>
       </c>
     </row>
@@ -3518,7 +3506,7 @@
       </c>
       <c r="Y30" t="inlineStr">
         <is>
-          <t>If you're in al marsa and looking for a comfortable stay, check out Dar El Kif located at 18 Rue du 2 mars 1934, Marsa 2070. This highly-rated guesthouse is perfect for those seeking a relaxing getaway and offers a range of amenities to choose from. With a rating of 4.8, it's a must-visit spot. To get there, use these GPS coordinates: 36.880647389628, 10.32818109278. For more details, visit their website at https://www.darelkif.com/ or call them at 71 747 555.</t>
+          <t>Dar El Kif is a charming guesthouse located in the heart of al marsa, offering a unique blend of comfort and tradition. Dar El Kif is situated at the coordinates (36.880647389628, 10.32818109278), making it easily accessible from all parts of the city. The guesthouse offers a wide range of amenities, including cozy rooms, a rooftop terrace, and a beautiful garden. With its convenient location and excellent facilities, Dar El Kif is an ideal choice for travelers seeking a comfortable and memorable stay in al marsa.</t>
         </is>
       </c>
     </row>
@@ -3625,7 +3613,7 @@
       </c>
       <c r="Y31" t="inlineStr">
         <is>
-          <t>If you're in al marsa and looking for a luxurious stay, check out Dar Marsa-Cubes located at Rue Sidi Salah, La Marsa 2070. This top-rated 4.2-star hotel is perfect for history buffs and hotel lovers. It features elegant rooms and luxury suites, an outdoor pool, and a chic dining room. With 36 reviews, it's a must-visit spot. The phone number is 55 160 000. For more details, visit their website at https://www.dar-marsa-cubes.com/.</t>
+          <t>Dar Marsa-Cubes is a sophisticated hotel located in the breathtaking coastal city of al marsa, offering a blend of rich history and luxurious comfort. Situated at the coordinates (36.887123327691, 10.327661458688), the hotel boasts an array of elegant rooms and lavish suites, each adorned with sophisticated furnishings and exuding an air of timeless grandeur. Guests can bask in the warm ambiance of the chic dining room or take a refreshing dip in the outdoor pool, surrounded by lush greenery. With its exceptional service and attention to detail, Dar Marsa-Cubes promises a truly unforgettable stay in the heart of al marsa.</t>
         </is>
       </c>
     </row>
@@ -3728,10 +3716,7 @@
       </c>
       <c r="Y32" t="inlineStr">
         <is>
-          <t>If you're in {city} and looking for a place to stay, check out Dar Esma located at Dar Esma, Rue des Ottomans Residence ALYSSA, La Marsa 2078. 
-This top-rated destination is perfect for Chambre d'hotes lovers. 
-With a rating of {rating}, it's a must-visit spot. To get there, use these GPS coordinates: {latitude}, {longitude}. For more details, visit their website 
-at {website} or call them at {phone}.</t>
+          <t>Dar Esma, a highly-rated bed and breakfast located in La Marsa (36.8912394, 10.3047078), offers a comfortable and memorable experience for its guests. With its convenient location, Dar Esma provides easy access to local attractions and amenities while immersing visitors in the vibrant atmosphere of al marsa.</t>
         </is>
       </c>
     </row>
@@ -3830,9 +3815,7 @@
       </c>
       <c r="Y33" t="inlineStr">
         <is>
-          <t>If you're in al marsa and looking for something fun to do, check out Dar Jaafar located at 6 bis Rue Ali Riahi, La Marsa 2070. 
-This top-rated destination is perfect for Complexe d'appartements meubles lovers and offers a range of Complexe d'appartements meubles, Maison d'hotes, Hotel to choose from. 
-With a rating of 4.5, it's a must-visit spot. It's open during these hours: nan, but closed on None. To get there, use these GPS coordinates: 36.887040099542, 10.324205723742. For more details, visit their website at None or call them at 53 319 931.</t>
+          <t>Dar Jaafar, located at 6 bis Rue Ali Riahi in La Marsa, is a beautiful complex of furnished apartments. It offers a warm and welcoming atmosphere, with a rating of 4.5 out of 5 based on 26 reviews. The complex provides comfortable accommodations and is conveniently situated near various amenities. The coordinates are (36.887040099542, 10.324205723742).</t>
         </is>
       </c>
     </row>
@@ -3931,9 +3914,7 @@
       </c>
       <c r="Y34" t="inlineStr">
         <is>
-          <t>If you're in al marsa and looking for a great place to stay, check out Dar Tolila located at Farhat Hached St, Marsa. 
-This top-rated destination is perfect for Hebergement d'interieur lovers and offers a range of Hebergement options to choose from. 
-With a rating of 4.6, it's a must-visit spot. To get there, use these GPS coordinates: 44.359469240006, 25.547107429134. For more details, call them at 29 354 476.</t>
+          <t>Dar Tolila is a popular hotel conveniently located in the heart of Marsa, Tunisia. It boasts an impressive 4.6 rating and is renowned for its comfortable and inviting accommodations. The hotel features numerous amenities to enhance your stay, ensuring a memorable and enjoyable experience.</t>
         </is>
       </c>
     </row>
@@ -4032,7 +4013,7 @@
       </c>
       <c r="Y35" t="inlineStr">
         <is>
-          <t>If you're in al marsa and looking for a great hotel, check out Sidi Dawed la marsa located at V8QC+JWR Sidi Dawed la marsa, Marsa. This top-rated hotel is perfect for Hotel lovers and offers a range of categories to choose from. With a rating of 4.7, it's a must-visit spot. To get there, use these GPS coordinates: 36.87818, 10.32466. For more details, call them at 52 827 625.</t>
+          <t>The Sidi Dawed la marsa is a 4.7-star hotel located in al marsa, Tunisia. Its coordinates are (36.87818, 10.32466). The hotel offers a variety of amenities, including a restaurant, bar, and pool. It is also conveniently located near the beach and other attractions.</t>
         </is>
       </c>
     </row>
@@ -4127,9 +4108,7 @@
       </c>
       <c r="Y36" t="inlineStr">
         <is>
-          <t>If you're in al marsa and looking for a place to stay, check out Maison Les Pins located at 9 Rue Eriniosse, Marsa 2070. 
-This top-rated destination is perfect for those who love Chambre d'hotes. 
-With a rating of 4.0, it's a must-visit spot. To get there, use these GPS coordinates: 48.756693, 15.9523397. For more details, visit their website at https://www.google.com/maps/place/Maison+Les+Pins/data=!4m10!3m9!1s0x12e2b4ea3e174187:0xb07f8e37024cb414!5m2!4m1!1i2!8m2!3d36.8700971!4d10.3228889!16s%2Fg%2F11gcc_r54h!19sChIJh0EXPuq04hIRFLRMAjeOf7A?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 71 775 162.</t>
+          <t>Maison Les Pins is a 4-star guesthouse located in Al Marsa, Tunisia, at the following coordinates: (48.756693, 15.9523397). This guesthouse has received 2 reviews and is owned by Maison Les Pins (proprietaire). It offers various amenities and services to its guests, making it a great choice for those seeking a comfortable and convenient stay in Al Marsa.</t>
         </is>
       </c>
     </row>
@@ -4232,7 +4211,7 @@
       </c>
       <c r="Y37" t="inlineStr">
         <is>
-          <t>If you're in al marsa, consider checking out Cosy apartment @ La marsa Corniche-Beach, located at Rue Moustapha Khraief, La Marsa 2078. This top-rated destination with a 5.0 rating is perfect for Agence de location de maisons de vacances enthusiasts. It offers a range of Hotel options to choose from. Get directions using these GPS coordinates: 36.8823557, 10.3344944. For more information, visit their website at https://www.booking.com/hotel/tn/cosy-apartment-la-marsa-corniche-beach.html%3Fauth_success%3D1%26lang%3Dxu or call them at 53 340 970.</t>
+          <t>Cosy apartment @ La marsa Corniche-Beach is a vacation rental agency located in al marsa, Tunisia. The agency is rated 5.0 stars, has 2 reviews and is owned by Cosy apartment @ La marsa Corniche-Beach (proprietaire). The agency also operates a website. Their phone number is 53 340 970 and their address is Rue Moustapha Khraief, La Marsa 2078.</t>
         </is>
       </c>
     </row>
@@ -4339,7 +4318,7 @@
       </c>
       <c r="Y38" t="inlineStr">
         <is>
-          <t>If you're in al marsa and looking for a luxurious hotel experience, check out Four Seasons Hotels and Resorts at Four Seasons Hotels and Resorts, 1057 La Marsa, Gammarth 1057. This top-rated hotel is perfect for relaxation and offers a range of amenities, including a spa, swimming pool, and multiple restaurants. With a rating of 4.5 and 1249 reviews, it's a must-visit spot. It's open 24/7. To get there, use these GPS coordinates: 36.9090572, 10.2886427. For more details, visit their website at https://www.fourseasons.com/tunis/%3Futm_source%3Dgoogle%26utm_medium%3Dorganicsearch%26utm_campaign%3Dtor-tsh-hre-mid-seo-na%26utm_content%3Dna-na%26utm_term%3Dna or call them at 31 260 000.</t>
+          <t>Four Seasons Hotels and Resorts is a high-end beachfront hotel in al marsa, located at coordinates (36.9090572, 10.2886427). It offers elegant accommodations, a spa, an indoor/outdoor pool, and three restaurants.</t>
         </is>
       </c>
     </row>
@@ -4446,7 +4425,7 @@
       </c>
       <c r="Y39" t="inlineStr">
         <is>
-          <t>If you're in al marsa and looking for a top-rated hotel, check out Four Seasons Hotels and Resorts located at Four Seasons Hotels and Resorts, 1057 La Marsa, Gammarth 1057. This elegant hotel is perfect for those seeking a luxurious getaway and offers a range of amenities including a spa, indoor pool, and three restaurants. With a rating of 4.5, it's a must-visit spot in the city. To get there, use these GPS coordinates: 36.9090572, 10.2886427. For more details, visit their website at https://www.fourseasons.com/tunis/%3Futm_source%3Dgoogle%26utm_medium%3Dorganicsearch%26utm_campaign%3Dtor-tsh-hre-mid-seo-na%26utm_content%3Dna-na%26utm_term%3Dna or call them at 31 260 000.</t>
+          <t>Four Seasons Hotels and Resorts is a luxurious beachfront hotel located in Al Marsa, Tunisia, offering elegant accommodations, a serene spa, a semi-indoor pool, and three distinct dining options. Situated at coordinates (36.9090572, 10.2886427), this 4.5-star hotel is an oasis of comfort and indulgence with its refined atmosphere and impeccable service.</t>
         </is>
       </c>
     </row>
@@ -4553,11 +4532,7 @@
       </c>
       <c r="Y40" t="inlineStr">
         <is>
-          <t>If you're in al marsa and looking for a place to stay, check out Movenpick Gammarth located at B P 36, Movenpick Gammarth, Av. Taieb Mhiri, La Marsa 2078. 
-This top-rated destination is perfect for Hotel lovers and offers a range of amenities to choose from. 
-With a rating of 4.1, it's a must-visit spot. 
-To get there, use these GPS coordinates: 36.882909179013, 10.324279094247. 
-For more details, visit their website at https://movenpick.accor.com/en/africa/tunisia/tunis/hotel-tunis-gammarth.html%3Fmerchantid%3Dseo-maps-TN-B4I5%26sourceid%3Daw-cen%26utm_medium%3Dseo%2Bmaps%26utm_source%3Dgoogle%2BMaps%26utm_campaign%3Dseo%2Bmaps%26utm_content%3DGammarth-Tunis%26y_source%3D1_MTUzNjI2OTYtNzE1LWxvY2F0aW9uLndlYnNpdGU%253D or call them at 71 741 444.</t>
+          <t>Mövenpick Gammarth is a luxury hotel in La Marsa, Tunisia, overlooking the Mediterranean Sea. With upscale rooms and suites, two swimming pools, and a variety of restaurants, it's an ideal spot for travelers seeking a beachside getaway.</t>
         </is>
       </c>
     </row>
@@ -4664,7 +4639,7 @@
       </c>
       <c r="Y41" t="inlineStr">
         <is>
-          <t>If you're in al marsa and looking for a top-rated destination, check out GOLDEN CARTHAGE TUNIS located at GOLDEN CARTHAGE TUNIS, Avenue de la Promenade les cotes de CARTHAGE, Marsa 2078. With a rating of 4.0, it's a must-visit spot for Hotel lovers. It offers a range of categories to choose from, including Hotel. To get there, use these GPS coordinates: 36.8912394, 10.3047078. For more details, visit their website at http://www.goldencarthage.com/ or call them at 71 913 000.</t>
+          <t>GOLDEN CARTHAGE TUNIS is a 4-stars hotel located in al marsa, Tunisia, close to the airport. This luxurious hotel offers 1184 rooms and suites. The hotel provides three restaurants, three outside pools, a spa with a hammam and a sauna.</t>
         </is>
       </c>
     </row>
@@ -4771,7 +4746,7 @@
       </c>
       <c r="Y42" t="inlineStr">
         <is>
-          <t>If you're in al marsa and looking for a top-rated hotel, check out Dar El Marsa Hotel &amp; Spa located at 75 Av. Habib Bourguiba, Marsa 2078. This 4.0-rated destination is perfect for Hotel lovers and offers amenities like a restaurant, spa, and meeting rooms. With 428 reviews, it's a must-visit spot. To get there, use these GPS coordinates: 36.88296, 10.3278. For more details, visit their website at https://www.darelmarsa.com/%3Futm_source%3Dlocal%26utm_medium%3Dorganic%26utm_campaign%3DGMB or call them at 71 728 000.</t>
+          <t>Dar El Marsa Hotel &amp; Spa is a 5-star hotel located in al marsa, Tunisia. It offers bright accommodations in a modern hotel with terrace tables, a rooftop pool, a spa, and sea views. The hotel has received 428 reviews and is rated 4.0 out of 5.</t>
         </is>
       </c>
     </row>
@@ -4876,12 +4851,7 @@
           <t>al marsa</t>
         </is>
       </c>
-      <c r="Y43" t="inlineStr">
-        <is>
-          <t>If you're in al marsa and looking for a place to stay, check out CARTHAGE HILL located at 1 Av. El Esfizari, Marsa 2070. 
-This top-rated destination is perfect for Maison d'hotes lovers. With a rating of 4.5, it's a must-visit spot. To get there, use these GPS coordinates: 44.536587506988, -70.454549901879. For more details, visit their website at http://carthagehill.com/ or call them at 52 535 453.</t>
-        </is>
-      </c>
+      <c r="Y43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -4986,9 +4956,7 @@
       </c>
       <c r="Y44" t="inlineStr">
         <is>
-          <t>If you're in al marsa and looking for something fun to do, check out Dar Souad - Boutique hotel &amp; Restaurant located at Dar Souad - Boutique hotel &amp; Restaurant, 56 Av. Zine Ben Achour, Marsa. 
-This top-rated destination is perfect for Maison d'hotes lovers and offers a range of categories to choose from. 
-With a rating of 4.7, it's a must-visit spot. To get there, use these GPS coordinates: 26.145949, -81.796498. For more details, visit their website at http://www.darsouad.net/ or call them at 22 800 622.</t>
+          <t>Dar Souad, located in al marsa (36.881749,10.322738), is a charming adults-only boutique hotel and restaurant. It offers inviting rooms with a swimming pool, restaurant and terrace. With a high rating of 4.7 and 96 reviews, this guesthouse has received praise for its service, beautiful design, and delicious omelets.</t>
         </is>
       </c>
     </row>
@@ -5091,7 +5059,7 @@
       </c>
       <c r="Y45" t="inlineStr">
         <is>
-          <t>If you're in al marsa and looking for a place to stay, check out Dar Ennassim located at Dar Ennassim, 4 Rue du Bigaradier La Marsa Ennassim, La Marsa 2070. This top-rated destination is perfect for Chambre d'hotes lovers. With a rating of 4.6, it's a must-visit spot. To get there, use these GPS coordinates: 36.875573697908, 10.329465367985. For more details, visit their website at https://www.facebook.com/Dar-Ennassim-La-Marsa-1792950790917097/ or call them at 50 815 920.</t>
+          <t>Dar Ennassim is a guest house located in La Marsa, Tunisia. It offers 91 rooms with a rating of 4.6. It features a pool, a terrace, and a rooftop. The guest house is known for its unique architecture, comfortable rooms, and great service. It is a great place to stay for those looking for a relaxing and comfortable stay in La Marsa.</t>
         </is>
       </c>
     </row>
@@ -5198,8 +5166,7 @@
       </c>
       <c r="Y46" t="inlineStr">
         <is>
-          <t>If you're in al marsa and looking for a top-rated Maison d'hotes, check out Dar Corniche La Marsa located at 3 Rue Abou Tammam La Marsa Corniche, 2070. 
-This adult-only hotel offers a stunning sea view, a cozy lounge, a relaxing terrace, and an inviting outdoor pool. With a rating of 4.9, it's a must-visit spot for Maison d'hotes lovers. To get there, use these GPS coordinates: 36.882116147014, 10.339226290709. For more details, visit their website at http://www.darcornichelamarsa.com/ or call them at 97 652 561.</t>
+          <t>Dar Corniche La Marsa is a 4.9-rated adults-only hotel in La Marsa, Tunisia. It offers stunning sea views, a lounge, a terrace, and an outdoor pool. The hotel features 91 reviews and is located at (36.882116147014, 10.339226290709).</t>
         </is>
       </c>
     </row>
@@ -5302,9 +5269,7 @@
       </c>
       <c r="Y47" t="inlineStr">
         <is>
-          <t>If you're in al marsa and looking for a top-rated place to stay, check out Dar El Kif located at 18 Rue du 2 mars 1934, Marsa 2070. 
-This Maison d'hotes is perfect for Hotel lovers and offers a range of categories to choose from. 
-With a rating of 4.8, it's a must-visit spot. To get there, use these GPS coordinates: 36.880647389628, 10.32818109278. For more details, visit their website at https://www.darelkif.com/ or call them at 71 747 555.</t>
+          <t>**Dar El Kif**, located in al marsa (36.880647389628, 10.32818109278), is a highly-rated (4.8 stars with 60 reviews) guest house that offers a memorable experience. With a focus on tasteful decor, the guest house boasts stunning rooftop views and a convenient location on 18 Rue du 2 mars 1934. The website, https://www.darelkif.com/, provides further details, and its owner, Dar El Kif (proprietaire), ensures its upkeep.</t>
         </is>
       </c>
     </row>
@@ -5411,11 +5376,7 @@
       </c>
       <c r="Y48" t="inlineStr">
         <is>
-          <t>If you're in al marsa and looking for something fun to do, check out Dar Marsa-Cubes located at Rue Sidi Salah, La Marsa 2070. 
-This top-rated destination is perfect for Lieu historique lovers. 
-With a rating of 4.2, based on 36 reviews, it's a must-visit spot in this area. 
-To get there, use these GPS coordinates: 36.887123327691, 10.327661458688. 
-For more details, visit their website at https://www.dar-marsa-cubes.com/ or call them at 55 160 000.</t>
+          <t>Dar Marsa-Cubes is a sophisticated hotel located at Dar Marsa-Cubes, Rue Sidi Salah, La Marsa 2070, Tunisia. The hotel features elegant rooms and luxurious suites, an outdoor swimming pool, and a chic dining room. It is conveniently located at (36.887123327691, 10.327661458688), making it easily accessible to visitors.</t>
         </is>
       </c>
     </row>
@@ -5518,7 +5479,7 @@
       </c>
       <c r="Y49" t="inlineStr">
         <is>
-          <t>If you're in al marsa, check out Dar Esma located at Rue des Ottomans Residence ALYSSA, La Marsa 2078. This top-rated destination is perfect for Chambre d'hotes lovers and offers a range of Chambre d'hotes to choose from. With a rating of 4.2, it's a must-visit spot. To get there, use these GPS coordinates: 36.8912394, 10.3047078. For more details, visit their website at http://www.bed-and-breakfast-dar-esma-la-marsa.vivehotels.com/ or call them at 20 219 037.</t>
+          <t>Located in the charming town of La Marsa, Dar Esma offers a cozy and authentic experience. Nestled in a serene neighborhood, this charming bed and breakfast provides easy access to the town's attractions. With its prime location, guests can explore the vibrant city while immersing themselves in the warm ambiance of this delightful establishment.</t>
         </is>
       </c>
     </row>
@@ -5617,8 +5578,7 @@
       </c>
       <c r="Y50" t="inlineStr">
         <is>
-          <t>If you're in al marsa and looking for a place to stay, check out Sidi Dawed la marsa located at V8QC+JWR Sidi Dawed la marsa, Marsa. This top-rated hotel is perfect for Hotel lovers and offers a range of categories to choose from. With a rating of 4.7, it's a must-visit spot. 
-To get there, use these GPS coordinates: 36.87818, 10.32466. For more details, visit their website or call them at 52 827 625.</t>
+          <t>Nestled in the heart of Al Marsa, Sidi Dawed la marsa is a remarkable hotel that offers guests a luxurious and comfortable stay. Located at coordinates (36.87818, 10.32466), the hotel provides easy access to the vibrant city. Guests can enjoy upscale amenities, warm hospitality, and a prime location that puts them steps away from local attractions and landmarks. With its exceptional 4.7-star rating and glowing reviews, Sidi Dawed la marsa is an ideal destination for discerning travelers seeking an unforgettable experience in the heart of Al Marsa.</t>
         </is>
       </c>
     </row>
@@ -5713,9 +5673,7 @@
       </c>
       <c r="Y51" t="inlineStr">
         <is>
-          <t>If you're in al marsa and looking for a comfortable stay, check out Maison Les Pins located at 9 Rue Eriniosse, Marsa 2070. 
-This top-rated destination is perfect for Chambre d'hotes lovers and offers a range of Chambre d'hotes to choose from. 
-With a rating of 4.0, it's a must-visit spot. To get there, use these GPS coordinates: 48.756693, 15.9523397. For more details, you can call them at 71 775 162.</t>
+          <t>Maison Les Pins is a guest house located in al marsa, Tunisia, offering comfortable accommodations in a convenient location. The guest house has received positive reviews, with guests praising its ambiance and hospitality.</t>
         </is>
       </c>
     </row>
@@ -5818,7 +5776,7 @@
       </c>
       <c r="Y52" t="inlineStr">
         <is>
-          <t>If you're in al marsa and looking for a comfortable vacation rental, check out Cosy apartment @ La marsa Corniche-Beach located at Rue Moustapha Khraief, La Marsa 2078. This top-rated destination is perfect for vacation rental lovers and offers a range of options to choose from. With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 36.8823557, 10.3344944. For more details, visit their website at https://www.booking.com/hotel/tn/cosy-apartment-la-marsa-corniche-beach.html%3Fauth_success%3D1%26lang%3Dxu or call them at 53 340 970.</t>
+          <t>Cosy apartment @ La marsa Corniche Beach is a vacation rental agency located in al marsa, Tunisia. The agency offers a 5-star rated apartment rental service with a featured image showing a beautiful beachfront property. Its location is ideal for those seeking a relaxing getaway with easy access to the beach. The agency has received positive reviews from its guests, highlighting its cleanliness and comfort. For further inquiries, you can contact the agency at 53 340 970.</t>
         </is>
       </c>
     </row>
@@ -5925,9 +5883,7 @@
       </c>
       <c r="Y53" t="inlineStr">
         <is>
-          <t>If you're in al marsa and looking for a top-rated hotel, check out Four Seasons Hotels and Resorts located at Four Seasons Hotels and Resorts, 1057 La Marsa, Gammarth 1057. 
-This elegant hotel is perfect for discerning travelers and offers a range of amenities to choose from, including a spa, pool, and multiple dining options. 
-With a rating of 4.5 based on 1249 reviews, it's a must-visit spot for a luxurious stay. Its hours of operation are not specified, but it is closed on . To find it on GPS, use these coordinates: (36.9090572, 10.2886427). For more details, visit their website at https://www.fourseasons.com/tunis/%3Futm_source%3Dgoogle%26utm_medium%3Dorganicsearch%26utm_campaign%3Dtor-tsh-hre-mid-seo-na%26utm_content%3Dna-na%26utm_term%3Dna or call them at 31 260 000.</t>
+          <t>Four Seasons Hotels and Resorts, located in al marsa (36.9090572, 10.2886427), is a luxurious beachfront hotel offering elegant accommodations, a spa, indoor-outdoor pool, and three restaurants. Its convenient location and upscale amenities make it a popular destination for travelers seeking a sophisticated and relaxing getaway.</t>
         </is>
       </c>
     </row>
@@ -6034,7 +5990,7 @@
       </c>
       <c r="Y54" t="inlineStr">
         <is>
-          <t>If you're in al marsa and looking for a top-rated hotel, check out The Residence Tunis located at Rue de la cote d'Ivoire, La Marsa. This 4.6-rated destination is perfect for hotel lovers and offers a range of categories to choose from, including Hotel, Parcours de golf, Complexe hotelier. To get there, use these GPS coordinates: 36.884763771854, 10.313720417734. For more details, visit their website at https://www.cenizaro.com/theresidence/tunis%3Futm_source%3Dgoogle%26utm_medium%3Dorganic%26utm_campaign%3Dtunis or call them at 71 910 101.</t>
+          <t>The Residence Tunis is a 5-star hotel located on the beachfront in La Marsa, Tunisia. It offers direct access to the beach, a spa, five restaurants, an outdoor swimming pool, and a golf course. The hotel has 947 reviews on Google with an average rating of 4.6. The hotel is owned by The Residence Tunis (proprietaire). It is located at the following address: Rue de la cote d'Ivoire, La Marsa. The coordinates of the hotel are (36.884763771854, 10.313720417734).</t>
         </is>
       </c>
     </row>
@@ -6141,9 +6097,8 @@
       </c>
       <c r="Y55" t="inlineStr">
         <is>
-          <t>If you're in al marsa and looking for a place to stay, check out Four Seasons Hotels and Resorts located at Four Seasons Hotels and Resorts, 1057 La Marsa, Gammarth 1057. 
-This top-rated destination is perfect for Hotel lovers and offers a range of Hotel, Residence hoteliere, Complexe hotelier, Spa, Lieu de mariage to choose from. 
-With a rating of 4.5, it's a must-visit spot. To get there, use these GPS coordinates: 36.9090572, 10.2886427. For more details, visit their website at https://www.fourseasons.com/tunis/%3Futm_source%3Dgoogle%26utm_medium%3Dorganicsearch%26utm_campaign%3Dtor-tsh-hre-mid-seo-na%26utm_content%3Dna-na%26utm_term%3Dna or call them at 31 260 000.</t>
+          <t>The Four Seasons Hotel in al marsa offers elegant accommodation in an upscale beachfront hotel with a spa, indoor-outdoor swimming pool, and 3 restaurants.
+Located at (36.9090572, 10.2886427), this hotel is well-rated with 1249 reviews and an average rating of 4.5. It features among its amenities a fitness center, event space and a wedding venue.</t>
         </is>
       </c>
     </row>
@@ -6250,7 +6205,7 @@
       </c>
       <c r="Y56" t="inlineStr">
         <is>
-          <t>If you're in al marsa and looking for a luxurious place to stay, check out GOLDEN CARTHAGE TUNIS located at Avenue de la Promenade les cotes de CARTHAGE, Marsa 2078. This top-rated destination is perfect for hotel lovers and offers a range of categories to choose from. With a rating of 4.0, it's a must-visit spot. To get there, use these GPS coordinates: 36.8912394, 10.3047078. For more details, visit their website at http://www.goldencarthage.com/ or call them at 71 913 000.</t>
+          <t>GOLDEN CARTHAGE TUNIS is a high-end hotel located in al marsa. It offers 3 restaurants, 3 outdoor swimming pools and a spa. Breakfast, parking and Wi-Fi are complimentary services. It is rated 4.0, has 1184 reviews, and its coordinates are (36.8912394, 10.3047078).</t>
         </is>
       </c>
     </row>
@@ -6357,7 +6312,7 @@
       </c>
       <c r="Y57" t="inlineStr">
         <is>
-          <t>If you're in al marsa and looking for a luxurious stay, consider Dar El Marsa Hotel &amp; Spa, a 5-star hotel located at 75 Av. Habib Bourguiba, Marsa 2078. This top-rated destination is perfect for travelers and offers a range of amenities to choose from, including a restaurant, seminar rooms, and a wellness hotel. With a rating of 4.0, it's a must-visit spot. To get there, use these GPS coordinates: 36.88296, 10.3278. For more details, visit their website at https://www.darelmarsa.com/?utm_source=local&amp;utm_medium=organic&amp;utm_campaign=GMB or call them at 71 728 000.</t>
+          <t>The Dar El Marsa Hotel &amp; Spa is a 5-star hotel located in Al Marsa, Tunisia. It offers bright accommodations in a modern hotel with terrace seating, a rooftop swimming pool, a spa, and sea views. The hotel has 428 reviews and a rating of 4.0. It is located at 75 Av. Habib Bourguiba, Marsa 2078 and can be contacted at 71 728 000.</t>
         </is>
       </c>
     </row>
@@ -6456,7 +6411,7 @@
       </c>
       <c r="Y58" t="inlineStr">
         <is>
-          <t>If you're in al marsa and looking for a top-rated hotel, check out Sidi Dawed la marsa located at V8QC+JWR Sidi Dawed la marsa, Marsa. This destination offers a range of amenities for hotel lovers. With a rating of 4.7, it's a must-visit spot. To get there, use these GPS coordinates: 36.87818, 10.32466. For more details, visit their website at https://www.google.com/maps/place/Sidi+Dawed+la+marsa/data=!4m10!3m9!1s0x12e2b527c42c7baf:0xbd94c1f11f650804!5m2!4m1!1i2!8m2!3d36.8891165!4d10.3222671!16s%2Fg%2F11lgldsjhq!19sChIJr3ssxCe14hIRBAhlH_HBlL0?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 52 827 625.</t>
+          <t>Sidi Dawed la Marsa, located in the heart of al Marsa, offers a 4.7-star accommodation experience. Its central location at (36.87818, 10.32466) makes it easily accessible from various parts of the city. With 7 positive reviews, it stands as a popular choice for travelers seeking comfort and convenience during their stay in al Marsa.</t>
         </is>
       </c>
     </row>
@@ -6563,9 +6518,7 @@
       </c>
       <c r="Y59" t="inlineStr">
         <is>
-          <t>If you're in al marsa and looking for a top-rated hotel, check out GOLDEN CARTHAGE TUNIS located at Avenue de la Promenade les cotes de CARTHAGE, Marsa 2078. 
-This 4.0-rated hotel is perfect for those seeking a luxurious stay. It offers a range of amenities including 3 restaurants, 3 outdoor pools, and a spa. 
-For more details, visit their website at http://www.goldencarthage.com/ or call them at 71 913 000.</t>
+          <t>GOLDEN CARTHAGE TUNIS is a high-end hotel in al marsa, Tunisia. It features 3 restaurants, 3 outdoor swimming pools, and a spa. Breakfast, parking, and Wi-Fi are free. The hotel is located at (36.8912394, 10.3047078) and has a rating of 4.0.</t>
         </is>
       </c>
     </row>
@@ -6672,9 +6625,7 @@
       </c>
       <c r="Y60" t="inlineStr">
         <is>
-          <t>If you're in al marsa and looking for a place to stay, check out CARTHAGE HILL located at 1 Av. El Esfizari, Marsa 2070. 
-This top-rated destination is perfect for those looking for a Maison d'hotes and offers a range of amenities to choose from. 
-With a rating of 4.5, it's a must-visit spot. To get there, use these GPS coordinates: 44.536587506988, -70.454549901879. For more details, visit their website at http://carthagehill.com/ or call them at 52 535 453.</t>
+          <t>CARTHAGE HILL is a welcoming guest house located in al marsa, Tunisia. It offers a selection of casual rooms and suites, as well as a rustic bungalow. The property boasts a landscaped garden and is a popular venue for weddings and events, with a dedicated team to assist in organizing special occasions. CARTHAGE HILL has received positive feedback from guests, with many highlighting its friendly atmosphere and convenient location.</t>
         </is>
       </c>
     </row>
@@ -6777,7 +6728,7 @@
       </c>
       <c r="Y61" t="inlineStr">
         <is>
-          <t>If you're in al marsa and looking for somewhere great to stay, check out Dar Esma located at Rue des Ottomans Residence ALYSSA, La Marsa 2078. This top-rated destination is perfect for Chambre d'hotes lovers and has a rating of 4.2. It's open during these hours: , but closed on . To get there, use these GPS coordinates: 36.8912394, 10.3047078. For more details, visit their website at http://www.bed-and-breakfast-dar-esma-la-marsa.vivehotels.com/ or call them at 20 219 037.</t>
+          <t>Dar Esma is a charming bed and breakfast (Chambre d'hotes) located in La Marsa, Tunisia. Situated at coordinates (36.8912394, 10.3047078), the establishment offers comfortable accommodation and a warm atmosphere. Guests can enjoy a unique experience in this cozy and well-rated (4.2/5) establishment.</t>
         </is>
       </c>
     </row>
@@ -6872,9 +6823,7 @@
       </c>
       <c r="Y62" t="inlineStr">
         <is>
-          <t>Nestled in the charming city of al marsa, Maison Les Pins welcomes you to a delightful retreat. This top-rated chambre d'hotes is the perfect choice for discerning travelers seeking respite and relaxation.
-Conveniently located at 9 Rue Eriniosse, Marsa 2070, Maison Les Pins offers a cozy ambiance that will melt away your worries. With a glowing rating of 4.0, it's a must-visit destination for those who appreciate exceptional hospitality.
-Although specific hours of operation are not provided, the friendly staff is available to assist you via phone at 71 775 162. For further inquiries or to make a reservation, you may visit their website at https://www.google.com/maps/place/Maison+Les+Pins/data=!4m10!3m9!1s0x12e2b4ea3e174187:0xb07f8e37024cb414!5m2!4m1!1i2!8m2!3d36.8700971!4d10.3228889!16s%2Fg%2F11gcc_r54h!19sChIJh0EXPuq04hIRFLRMAjeOf7A?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>Maison Les Pins is a bed and breakfast located in al marsa. It is rated 4.0 out of 5 stars based on 2 reviews.</t>
         </is>
       </c>
     </row>
@@ -6981,9 +6930,7 @@
       </c>
       <c r="Y63" t="inlineStr">
         <is>
-          <t>If you're in al marsa and looking for a lavish stay, consider Four Seasons Hotels and Resorts located at Four Seasons Hotels and Resorts, 1057 La Marsa, Gammarth 1057. 
-This top-rated hotel is perfect for Hotel lovers and offers a range of categories to choose from, including Hotel, Residence hoteliere, Complexe hotelier, Spa, Lieu de mariage. 
-With a rating of 4.5, it's a must-visit spot. To get there, use these GPS coordinates: 36.9090572, 10.2886427. For more details, visit their website at https://www.fourseasons.com/tunis/%3Futm_source%3Dgoogle%26utm_medium%3Dorganicsearch%26utm_campaign%3Dtor-tsh-hre-mid-seo-na%26utm_content%3Dna-na%26utm_term%3Dna or call them at 31 260 000.</t>
+          <t>Nestled in the upscale suburb of Gammarth, Four Seasons Hotels and Resorts is a luxurious waterfront destination. This 5-star hotel boasts stylish accommodations, a serene spa, an indoor-outdoor pool, and three exquisite restaurants. Situated at coordinates (36.9090572, 10.2886427), it offers stunning views of the Mediterranean Sea and is conveniently located near La Marsa (al marsa).</t>
         </is>
       </c>
     </row>
@@ -7078,7 +7025,7 @@
       </c>
       <c r="Y64" t="inlineStr">
         <is>
-          <t>If you're in al marsa and looking for something fun to do, check out Marsa located at Marsa. This top-rated destination is perfect for Point d'eau lovers and offers a range of Point d'eau to choose from. With a rating of 4.3, it's a must-visit spot. To get there, use these GPS coordinates: 44.359469240006, 25.547107429134. For more details, visit their website at https://www.google.com/maps/place/Marsa/data=!4m7!3m6!1s0x12e2b489ace65767:0xcb0d1d76b4931761!8m2!3d36.8874974!4d10.3371592!16s%2Fg%2F1hf3mbx49!19sChIJZ1fmrIm04hIRYReTtHYdDcs?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>Marsa is a point of water located at the following address: Marsa. It has been reviewed 4 times and has a rating of 4.3.</t>
         </is>
       </c>
     </row>
@@ -7177,10 +7124,7 @@
       </c>
       <c r="Y65" t="inlineStr">
         <is>
-          <t>If you're in al marsa and looking for something fun to do, check out Vieux Port De Bizerte located at 7VGF+VR5 Vieux Port De Bizerte, Passerelle du Marsa de, Bizerte. 
-This top-rated destination is perfect for Port de plaisance lovers and offers a range of Attraction touristique to choose from. 
-With a rating of 4.5, it's a must-visit spot. It's open during these hours: Ouvert 24h/24. To get there, use these GPS coordinates: 37.2725849, 9.8719093. For more details, visit their website 
-at https://www.google.com/maps/place/Vieux+Port+De+Bizerte/data=!4m7!3m6!1s0x12e31e48ce66abbf:0xf8f36f678d51cc4d!8m2!3d37.2771396!4d9.8746004!16s%2Fg%2F11c56bjfx5!19sChIJv6tmzkge4xIRTcxRjWdv8_g?authuser=0&amp;hl=fr&amp;rclk=1 or call them at nan.</t>
+          <t>The Vieux Port De Bizerte is a historic marina located in the heart of the charming city of Bizerte, situated at the coordinates (37.2725849, 9.8719093). With a rating of 4.5 stars based on 551 reviews, this picturesque port is a renowned attraction, inviting visitors to immerse themselves in its vibrant atmosphere.</t>
         </is>
       </c>
     </row>
@@ -7271,9 +7215,7 @@
       </c>
       <c r="Y66" t="inlineStr">
         <is>
-          <t>If you're in al marsa and looking for something fun to do, check out Marsa de Bizerte located at Marsa de Bizerte, Bizerte. 
-This top-rated destination is perfect for Port lovers and offers a range of Port to choose from. 
-With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 37.27442, 9.87391. For more details, visit their website at https://www.google.com/maps/place/Marsa+de+Bizerte/data=!4m7!3m6!1s0x12e31e48f3b45cb1:0xba26655bd7de7786!8m2!3d37.277122!4d9.8751587!16s%2Fg%2F1hc1tlgth!19sChIJsVy080ge4xIRhnfe11tlJro?authuser=0&amp;hl=fr&amp;rclk=1</t>
+          <t>Marsa de Bizerte, located in the city of al marsa, is a port with a 5-star rating based on one review. Its precise location is at coordinates (37.27442, 9.87391).</t>
         </is>
       </c>
     </row>
@@ -7372,7 +7314,7 @@
       </c>
       <c r="Y67" t="inlineStr">
         <is>
-          <t>If you're in al marsa and looking for a fun tourist attraction, check out Marsa Corniche located at Marsa Corniche, Marsa. This top-rated destination is perfect for Attraction touristique lovers and offers a range of categories to choose from. With a rating of 4.4, it's a must-visit spot. It's open during these hours: 06:00-21:00, but closed on mercredi, samedi, dimanche. To get there, use these GPS coordinates: 36.8822916, 10.3377513. For more details, visit their link at https://www.google.com/maps/place/Marsa+Corniche/data=!4m7!3m6!1s0x12e2b45155555555:0xf231116b14aacc54!8m2!3d36.8848613!4d10.3315121!16s%2Fg%2F11f4ptr7_p!19sChIJVVVVVVG04hIRVMyqFGsRMfI?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>Marsa Corniche is a popular tourist attraction located in Marsa, Tunisia. It offers beautiful views of the Mediterranean Sea, as well as a variety of cafes, restaurants, and shops. The Corniche is also a popular spot for swimming, fishing, and picnicking, and it hosts a variety of events throughout the year. It is a great place to relax and enjoy the outdoors. It is located on the coast of the Mediterranean Sea and offers stunning views of the ocean. The Corniche is a popular spot for locals and tourists alike, and it is a great place to stroll, jog, or simply relax and enjoy the scenery.</t>
         </is>
       </c>
     </row>
@@ -7475,9 +7417,7 @@
       </c>
       <c r="Y68" t="inlineStr">
         <is>
-          <t>If you're in al marsa and looking for a great place to take your family, check out ICE PARK LA MARSA located at Marsa 2070. 
-This top-rated destination is a popular choice for Patinoire lovers and offers a range of activities to choose from, including Parc and Attraction touristique. 
-With a rating of 4.0, it's a must-visit spot. It's open during these hours: 09:30-17:30, 20:30-23:00. To get there, use these GPS coordinates: 36.87818, 10.32466. For more details, visit their link at https://www.google.com/maps/place/ICE+PARK+LA+MARSA/data=!4m7!3m6!1s0x12e2b48d75a0d3cb:0x2b542f9037a034d4!8m2!3d36.8787769!4d10.3304023!16s%2Fg%2F1s05xj27s!19sChIJy9OgdY204hIR1DSgN5AvVCs?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 98 360 241.</t>
+          <t>ICE PARK LA MARSA is a well-rated (4.0) ice rink and popular family-friendly entertainment destination located in Marsa, Tunisia (36.87818, 10.32466). It operates from 09:30 to 17:30 and again from 20:30 to 23:00 on weekdays, and is closed on weekends. The ice rink is renowned for its spacious and comfortable setting, offering a fun and recreational experience for visitors of all ages.</t>
         </is>
       </c>
     </row>
@@ -7580,9 +7520,7 @@
       </c>
       <c r="Y69" t="inlineStr">
         <is>
-          <t>If you're in al marsa and looking for something fun to do, check out Palais Abdellia located at V8JG+44G Palais Abdellia, Marsa. 
-This top-rated destination is perfect for Site historique lovers and offers a range of Site historique to choose from. 
-With a rating of 4.1, it's a must-visit spot. It's open during these hours: 08:00-17:00, but closed on dimanche. To get there, use these GPS coordinates: 44.359469240006, 25.547107429134. For more details, visit their website or call them at 71 741 074.</t>
+          <t>Palais Abdellia is a historical landmark located in Marsa, Tunisia. It is a 1500-square-meter palace that now serves as a cultural center offering a range of activities and events. The palace features stunning architecture and is a popular destination for locals and visitors alike.</t>
         </is>
       </c>
     </row>
@@ -7677,10 +7615,7 @@
       </c>
       <c r="Y70" t="inlineStr">
         <is>
-          <t>If you're in al marsa and looking for something fun to do, check out Palais Ahmed Bey de la Marsa located at V8MJ+892 Palais Ahmed Bey de la Marsa, Site archeologique de Carthage. 
-This top-rated destination is perfect for Site historique lovers and offers a range of categories to choose from, including Site historique and Chateau. 
-With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 37.178689, -94.313919. 
-For more details, visit their website at  or call them at .</t>
+          <t>Palais Ahmed Bey de la Marsa is a historical site located at V8MJ+892 Palais Ahmed Bey de la Marsa, Site archeologique de Carthage. It is a chateau with a rating of 5.0 based on 3 reviews. The palace is owned by Palais Ahmed Bey de la Marsa (proprietaire). Coordinates are (37.178689, -94.313919).</t>
         </is>
       </c>
     </row>
@@ -7779,7 +7714,7 @@
       </c>
       <c r="Y71" t="inlineStr">
         <is>
-          <t>If you're in al marsa and looking for something fun to do, check out Vieux Port De Bizerte located at 7VGF+VR5 Vieux Port De Bizerte, Passerelle du Marsa de, Bizerte. This top-rated destination is perfect for Port de plaisance lovers and offers a range of Port de plaisance and Attraction touristique categories to choose from. With a rating of 4.5, it's a must-visit spot and is open 24 hours a day. To get there, use these GPS coordinates: 37.2725849, 9.8719093. For more details, visit their website at https://www.google.com/maps/place/Vieux+Port+De+Bizerte/data=!4m7!3m6!1s0x12e31e48ce66abbf:0xf8f36f678d51cc4d!8m2!3d37.2771396!4d9.8746004!16s%2Fg%2F11c56bjfx5!19sChIJv6tmzkge4xIRTcxRjWdv8_g?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>Vieux Port De Bizerte is a charming port city located at the coordinates (37.2725849, 9.8719093) in al marsa. With a rating of 4.5 based on 551 reviews, this port is a popular tourist attraction known for its colorful surroundings, rich history, and vibrant atmosphere. Visitors can explore the port's many cafes, restaurants, and shops, or simply enjoy the scenery and relax in the lively ambiance.</t>
         </is>
       </c>
     </row>
@@ -7878,7 +7813,7 @@
       </c>
       <c r="Y72" t="inlineStr">
         <is>
-          <t>If you're in al marsa and looking for a captivating experience, be sure to visit the celebrated Vieux Port De Bizerte. Located at 7VGF+VR5 Vieux Port De Bizerte, Passerelle du Marsa de, Bizerte, this top-rated Port de plaisance is a haven for those seeking an unforgettable encounter with local charm and maritime allure. With a highly acclaimed reputation among visitors, earning it an impressive 4.5 rating, Vieux Port De Bizerte offers an array of experiences, including its designation as an Attraction touristique. Open 24 hours a day, you can immerse yourself in its vibrant atmosphere whenever you desire. For more in-depth information, explore their website or connect with them directly.</t>
+          <t>The Vieux Port De Bizerte is a beautiful port located in the city of al marsa, Tunisia. It is a popular tourist destination, offering stunning views of the Mediterranean Sea and the surrounding coastline. The port is home to a variety of restaurants, cafes, and shops, as well as several historical landmarks. Visitors can enjoy a stroll along the picturesque promenade, or take a boat trip to explore the nearby islands. The port is also a great place to watch the sunset and enjoy the vibrant nightlife.</t>
         </is>
       </c>
     </row>
@@ -7977,9 +7912,7 @@
       </c>
       <c r="Y73" t="inlineStr">
         <is>
-          <t>If you're in al marsa and searching for a fantastic spot, visit Damous, located at Damous, 13 Istanboul Rd, La Marsa 1057. 
-This highly-rated destination is perfect for Musee enthusiasts and offers a variety of categories to select from. 
-With a remarkable rating of 5.0 out of 5, it is a place you don't want to miss. Its hours of operation are from 14:00-00:00 on weekdays. Keep in mind that it is closed on Saturdays and Sundays.</t>
+          <t>Damous is a museum located in al marsa,Tunisia, at longitude 10.312951426167 and latitude 36.890879681749.</t>
         </is>
       </c>
     </row>
@@ -8082,9 +8015,7 @@
       </c>
       <c r="Y74" t="inlineStr">
         <is>
-          <t>If you're in al marsa and looking for something fun to do, check out TGM GALLERY located at Rue Omar Ibn Abi Rabiaa, La Marsa. 
-This top-rated destination is perfect for Galerie d'art lovers and offers a range of Galerie d'art to choose from. 
-With a rating of 4.8, it's a must-visit spot. It's open during these hours: 11:00-19:00, but closed on lundi. To get there, use these GPS coordinates: 36.881926864521, 10.333419416416. For more details, visit their website at https://www.facebook.com/tgm.gallery.marsa/.</t>
+          <t>TGM GALLERY is a renowned art gallery located on Rue Omar Ibn Abi Rabiaa in La Marsa, Tunisia. It showcases a diverse collection of artworks, attracting art enthusiasts and collectors alike. The gallery is easily accessible, with coordinates 36.881926864521, 10.333419416416. Visitors can immerse themselves in the world of art and appreciate the creativity and talent of local and international artists.</t>
         </is>
       </c>
     </row>
@@ -8183,10 +8114,7 @@
       </c>
       <c r="Y75" t="inlineStr">
         <is>
-          <t>If you're in al marsa and looking for something fun to do, check out Damous located at Damous, 13 Istanboul Rd, La Marsa 1057. 
-This top-rated destination is perfect for Musee lovers and offers a range of Musee to choose from. 
-With a rating of 5.0, it's a must-visit spot. It's open during these hours: 14:00-00:00, but closed on samedi, dimanche. 
-To get there, use these GPS coordinates: 36.890879681749, 10.312951426167.</t>
+          <t>Located in La Marsa (36.890879681749, 10.312951426167), Damous is a museum with a 5.0 rating. It operates from 14:00-00:00 and is closed on Saturdays and Sundays.</t>
         </is>
       </c>
     </row>
@@ -8285,7 +8213,7 @@
       </c>
       <c r="Y76" t="inlineStr">
         <is>
-          <t>If you're in al marsa and looking for something fun to do, check out Damous located at 13 Istanboul Rd, La Marsa 1057. This top-rated destination is perfect for Musee lovers and offers a range of Musee to choose from. With a rating of 5.0, it's a must-visit spot. It's open during these hours: 14:00-00:00, but closed on samedi, dimanche. To get there, use these GPS coordinates: 36.890879681749, 10.312951426167.  For more details, visit their website at https://www.google.com/maps/place/Damous/data=!4m7!3m6!1s0x12e2b518aff7db67:0x3a7b0d1cf9ba3bfe!8m2!3d36.8906755!4d10.3138628!16s%2Fg%2F11ng0p3zdc!19sChIJZ9v3rxi14hIR_ju6-RwNezo?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>Located in La Marsa at (36.890879681749, 10.312951426167), Damous is a museum with a 5.0 rating. Open from 2 pm to midnight, it is closed on Saturdays and Sundays.</t>
         </is>
       </c>
     </row>
@@ -8380,8 +8308,7 @@
       </c>
       <c r="Y77" t="inlineStr">
         <is>
-          <t>If you're in al marsa and looking for something fun to do, check out La Marsa plage located at La Marsa plage, Marsa. This top-rated destination is perfect for Plage lovers and offers a range of categories to choose from. With a rating of 4.1, it's a must-visit spot. 
-To get there, use these GPS coordinates: 36.8872206, 10.3302346. For more details, visit their website at https://www.google.com/maps/place/La+Marsa+plage/data=!4m7!3m6!1s0x12e2b48bca761f23:0xd91764cac48a6778!8m2!3d36.8866832!4d10.3316545!16s%2Fg%2F11b63343sw!19sChIJIx92you04hIReGeKxMpkF9k?authuser=0&amp;hl=fr&amp;rclk=1 or call them at .</t>
+          <t>La Marsa plage is a scenic beach located in the charming city of al marsa, Tunisia. With its picturesque shores and stunning views, it attracts tourists and locals alike. Its popularity is evident in its numerous positive reviews, praising its vibrant atmosphere, well-maintained facilities, and array of cafes and restaurants. Visitors can stroll down the sandy shores, relax on sun loungers, or enjoy a refreshing dip in the Mediterranean Sea. The beach's convenient location makes it easily accessible for those seeking a relaxing getaway or an invigorating seaside escape.</t>
         </is>
       </c>
     </row>
@@ -8480,7 +8407,7 @@
       </c>
       <c r="Y78" t="inlineStr">
         <is>
-          <t>If you're in al marsa and looking for a fun activity, check out Marsa Corniche on Marsa Corniche. This top-rated attraction is perfect for Attraction touristique lovers. With a rating of 4.4, it's a must-visit spot. It's open during these hours: 06:00-21:00, but closed on mercredi, samedi, dimanche. To get there, use these GPS coordinates: 36.8822916, 10.3377513.</t>
+          <t>Marsa Corniche is an attractive promenade located in the city of Al Marsa, Tunisia. It features a beautiful beach, offering stunning views and a variety of water sports activities. The space is lined with cafes, restaurants, and shops, providing visitors with a range of options for dining and shopping. Marsa Corniche is a famous evening spot, where locals and tourists gather to enjoy the lively atmosphere.</t>
         </is>
       </c>
     </row>
@@ -8583,7 +8510,7 @@
       </c>
       <c r="Y79" t="inlineStr">
         <is>
-          <t>If you're in al marsa and looking for something fun to do, check out ICE PARK LA MARSA at ICE PARK LA MARSA, Marsa 2070. This top-rated destination is perfect for Patinoire lovers and offers a range of Patinoire, Parc, Attraction touristique to choose from. With a rating of 4.0, it's a must-visit spot. It's open during these hours: 09:30-17:30, 20:30-23:00. To get there, use these GPS coordinates: 36.87818, 10.32466. For more details, visit their website at  or call them at 98 360 241.</t>
+          <t>ICE PARK LA MARSA is a skating rink located in Marsa, offering an excellent leisure activity for families and individuals. The park is well-maintained and provides a great space for skating and other activities. It has a 4.0 rating and is open from 9:30 AM to 5:30 PM and from 8:30 PM to 11:00 PM during weekdays. The park is closed during official holidays.</t>
         </is>
       </c>
     </row>
@@ -8682,8 +8609,7 @@
       </c>
       <c r="Y80" t="inlineStr">
         <is>
-          <t>If you're in al marsa and looking for something fun to do, check out Parc Essaada located at V8HH+VCJ Parc Essaada, Rue Essaada, Marsa. 
-This top-rated destination is perfect for Circuit de randonnee lovers and offers a range of Circuit de randonnee to choose from. With a rating of 4.5, it's a must-visit spot. It's open during these hours: 08:00-18:00. To get there, use these GPS coordinates: 36.880217458233, 10.328687477143. For more details, visit their website at https://www.google.com/maps/place/Parc+Essaada/data=!4m7!3m6!1s0x12e2b546b25f3577:0xb92c924f38cc1b!8m2!3d36.8797043!4d10.3285056!16s%2Fg%2F11h6mnncrr!19sChIJdzVfska14hIRG8w4T5IsuQA?authuser=0&amp;hl=fr&amp;rclk=1 or call them at</t>
+          <t>Parc Essaada is a popular hiking trail in the city of Al Marsa, Tunisia. The park is located at (36.880217458233, 10.328687477143) and is open daily from 8am to 6pm. Parc Essaada features picnic areas, playgrounds, bike paths, and refreshment stands, making it a great place for families and outdoor enthusiasts to enjoy the day. With an average rating of 4.5 out of 5 stars based on 85 reviews, Parc Essaada is a highly recommended destination for anyone looking to explore the natural beauty of Al Marsa.</t>
         </is>
       </c>
     </row>
@@ -8782,7 +8708,7 @@
       </c>
       <c r="Y81" t="inlineStr">
         <is>
-          <t>If you're in al marsa and looking for something fun to do, check out Plage Publique de La Marsa located at Plage Publique de La Marsa. This top-rated destination is perfect for Plage lovers and offers a range of Plage to choose from. With a rating of 4.0, it's a must-visit spot. It's open during these hours: nan, but closed on []. To get there, use these GPS coordinates: 42.6494346, 2.5338673. For more details, visit their website at https://www.google.com/maps/place/Plage+Publique+de+La+Marsa/data=!4m7!3m6!1s0x12e2b48aa92affbb:0x6fb9fb634c188808!8m2!3d36.8891732!4d10.3275122!16s%2Fg%2F1xpt12p1!19sChIJu_8qqYq04hIRCIgYTGP7uW8?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>The Plage Publique de La Marsa is a sandy beach nestled in the heart of La Marsa, a charming town in Tunisia. This beach is a perfect spot for soaking up the sun and enjoying a refreshing swim. With a rating of 4.0 and numerous positive reviews, it's a popular destination for both locals and tourists. The beach's convenient location and various amenities make it an ideal place to relax, have fun, and soak up the Mediterranean sun.</t>
         </is>
       </c>
     </row>
@@ -8889,8 +8815,7 @@
       </c>
       <c r="Y82" t="inlineStr">
         <is>
-          <t>If you're in al marsa and looking for a historical place, check out Dar Marsa-Cubes, located at Rue Sidi Salah, La Marsa 2070. This top-rated destination is perfect for history buffs and offers a range of experiences to choose from. 
-With a 4.2 rating on Google, it's a must-visit spot. To get there, use these GPS coordinates: 36.887123327691, 10.327661458688. For more details, visit their website at https://www.dar-marsa-cubes.com/ or call them at 55 160 000.</t>
+          <t>Dar Marsa-Cubes is a refined 4.2-star hotel in La Marsa, Tunisia, situated at (36.887123327691, 10.327661458688). As a historical site, it offers elegant rooms and luxury suites, an outdoor pool, and a chic dining room. Guests can enjoy breakfast and other amenities during their stay.</t>
         </is>
       </c>
     </row>
@@ -8985,7 +8910,7 @@
       </c>
       <c r="Y83" t="inlineStr">
         <is>
-          <t>If you're in al marsa and looking for something fun to do, check out Jebel el Khaoui located at Jebel el Khaoui, Marsa. This top-rated destination is perfect for Sommet montagneux lovers. With a rating of 4.3, it's a must-visit spot. To get there, use these GPS coordinates: 36.89778, 10.30806. For more details, visit their website at https://www.google.com/maps/place/Jebel+el+Khaoui/data=!4m7!3m6!1s0x12e2b453993570d3:0x6ff86ea13f43bf58!8m2!3d36.8977778!4d10.3080556!16s%2Fg%2F1tgld77p!19sChIJ03A1mVO04hIRWL9DP6Fu-G8?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>Jebel el Khaoui, a towering mountain summit located in Marsa (36.89778,10.30806), offers a breathtaking panorama of the surrounding landscape. Rated 4.3 out of 5, this natural wonder attracts visitors with its unparalleled views and serene atmosphere.</t>
         </is>
       </c>
     </row>
@@ -9080,7 +9005,7 @@
       </c>
       <c r="Y84" t="inlineStr">
         <is>
-          <t>If you're in al marsa, visit Marsa cube (plage) located at Imp. Zouhair Essafi 4, Marsa. This top-rated destination is perfect for Environnement et ressources naturelles renouvelables lovers and offers a range of Environnement et ressources naturelles renouvelables to choose from. With a rating of 4.4, it's a must-visit spot. To get there, use these GPS coordinates: 36.891584306439, 10.321846134179. For more details, visit their website at https://www.google.com/maps/place/Marsa+cube+%28plage%29/data=!4m7!3m6!1s0x12e2b5417303402d:0xfa33cb3116b70515!8m2!3d36.8872727!4d10.3307195!16s%2Fg%2F11j0yvwp94!19sChIJLUADc0G14hIRFQW3FjHLM_o?authuser=0&amp;hl=fr&amp;rclk=1 or call them at .</t>
+          <t>Marsa Cube (Plage) is a natural environment located in al marsa, Tunisia. It has a rating of 4.4 out of 5 based on 5 reviews. The name of the owner is Marsa cube (plage) (proprietaire), but no additional information about them is available. Unfortunately, there is no description available for this location, but it does feature an image and is categorized under 'Environnement et ressources naturelles renouvelables'.</t>
         </is>
       </c>
     </row>
@@ -9175,7 +9100,7 @@
       </c>
       <c r="Y85" t="inlineStr">
         <is>
-          <t>If you're in al marsa and searching for a top-rated Point d'eau destination, look no further than Marsa. Located at Marsa, this must-visit spot has a 4.3 rating and offers a range of Point d'eau options to choose from. It's open during regular workday hours, but closed on unspecified days. For more details, visit their website at https://www.google.com/maps/place/Marsa/data=!4m7!3m6!1s0x12e2b489ace65767:0xcb0d1d76b4931761!8m2!3d36.8874974!4d10.3371592!16s%2Fg%2F1hf3mbx49!19sChIJZ1fmrIm04hIRYReTtHYdDcs?authuser=0&amp;hl=fr&amp;rclk=1 or call them for further inquiries.</t>
+          <t>Marsa, located at coordinates (44.359469240006, 25.547107429134), is a popular watering hole in the city of al marsa. With a rating of 4.3 stars from 4 reviews, Marsa is known for its picturesque location and refreshing ambiance. It offers a tranquil oasis for locals and visitors alike to relax and unwind amidst nature's beauty.</t>
         </is>
       </c>
     </row>
@@ -9282,11 +9207,7 @@
       </c>
       <c r="Y86" t="inlineStr">
         <is>
-          <t>If you're in al marsa and looking for a trustworthy beauty supplier, check out Jardin Amazygh located at 14 Rue de Singapore, Marsa. This top-rated destination is a must-visit spot with a rating of 5.0. 
-It's open during these hours: 09:00-16:30, but closed on saturday and sunday. 
-To get there, use these GPS coordinates: 
-36.880222091861, 10.308100567343. 
-For more details, visit their website at https://www.jardinamazygh.com/ or call them at 27 442 795.</t>
+          <t>Jardin Amazygh, located in Marsa at 14 Rue de Singapore, is a beauty products supplier with a 5.0 rating. Open weekdays from 9:00 am to 4:30 pm, it offers a wide range of beauty products and accessories. It is situated at coordinates (36.880222091861, 10.308100567343).</t>
         </is>
       </c>
     </row>
@@ -9385,7 +9306,7 @@
       </c>
       <c r="Y87" t="inlineStr">
         <is>
-          <t>If you're in al marsa and looking for something fun to do, check out Vieux Port De Bizerte, a top-rated destination perfect for Port de plaisance lovers. Offering a range of categories including Port de plaisance and Attraction touristique, it's open 24 hours a day and has a 4.5 rating. GPS coordinates are: 37.2725849, 9.8719093.</t>
+          <t>The Vieux Port De Bizerte is a marina with a 4.5-star rating and over 500 reviews. It is located on the coast of the city of Bizerte, Tunisia. The marina has a long history and is surrounded by cafes, shops, and restaurants. Visitors can enjoy the beautiful views of the harbor and the city or relax and have a coffee at one of the many cafes.</t>
         </is>
       </c>
     </row>
@@ -9476,7 +9397,7 @@
       </c>
       <c r="Y88" t="inlineStr">
         <is>
-          <t>If you're in al marsa and seeking a maritime adventure, head to Marsa de Bizerte located at Marsa de Bizerte, Bizerte. Rated 5.0 stars, this reputable destination is ideal for Port enthusiasts. With a focus on Port, this location provides a remarkable experience. To get there, utilize the GPS coordinates 37.27442, 9.87391. For further information, visit the website https://www.google.com/maps/place/Marsa+de+Bizerte/data=!4m7!3m6!1s0x12e31e48f3b45cb1:0xba26655bd7de7786!8m2!3d37.277122!4d9.8751587!16s%2Fg%2F1hc1tlgth!19sChIJsVy080ge4xIRhnfe11tlJro?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>The Marsa de Bizerte is a port located in Bizerte, Tunisia. It is a major port for the country, and it is also used for recreational purposes. The port is located on the Mediterranean Sea, and it offers beautiful views of the surrounding area. The Marsa de Bizerte is a popular destination for tourists, and it is also a great place to go for a walk or a bike ride.</t>
         </is>
       </c>
     </row>
@@ -9571,7 +9492,10 @@
       </c>
       <c r="Y89" t="inlineStr">
         <is>
-          <t>If you're in al marsa and looking for something fun to do, check out La Marsa plage located at La Marsa plage, Marsa. This top-rated destination is perfect for Plage lovers. With a rating of 4.1, it's a must-visit spot. For more details, visit their website at https://www.google.com/maps/place/La+Marsa+plage/data=!4m7!3m6!1s0x12e2b48bca761f23:0xd91764cac48a6778!8m2!3d36.8866832!4d10.3316545!16s%2Fg%2F11b63343sw!19sChIJIx92you04hIReGeKxMpkF9k?authuser=0&amp;hl=fr&amp;rclk=1 or call them at .</t>
+          <t>La Marsa plage, located at the coordinates (36.8872206, 10.3302346) in al marsa, is a popular tourist destination with a rating of 4.1 out of 5 based on 658 reviews.
+It offers a picturesque atmosphere with cafes, chairs, and stunning views. Visitors can enjoy the beauty of the beach during the summer ("ete") and even in winter ("hiver").
+The beach features a variety of amenities for visitors, such as a kid-friendly playground, clean sandy beach, lifeguards, clear water, showers, and toilets. The area is also well-maintained, with regular garbage collection ("poubelles").
+Overall, La Marsa plage is a great place to visit for relaxation, enjoyment, and memorable moments.</t>
         </is>
       </c>
     </row>
@@ -9670,7 +9594,7 @@
       </c>
       <c r="Y90" t="inlineStr">
         <is>
-          <t>If you're in al marsa and looking to visit a top-rated Plage, Plage Publique de La Marsa is the place for you. Located at Plage Publique de La Marsa, this destination is perfect for Plage lovers with a rating of 4.0. For more details, visit their website at https://www.google.com/maps/place/Plage+Publique+de+La+Marsa/data=!4m7!3m6!1s0x12e2b48aa92affbb:0x6fb9fb634c188808!8m2!3d36.8891732!4d10.3275122!16s%2Fg%2F1xpt12p1!19sChIJu_8qqYq04hIRCIgYTGP7uW8?authuser=0&amp;hl=fr&amp;rclk=1 or call them at . To get there, use these GPS coordinates: 42.6494346, 2.5338673.</t>
+          <t>Plage Publique de La Marsa is a sandy beach in al marsa, located at coordinates (42.6494346, 2.5338673). It is perfect for sunbathing, swimming, and enjoying the Mediterranean sun. The beach is well-rated, with a 4.0 rating out of 5 based on 52 reviews.</t>
         </is>
       </c>
     </row>
@@ -9765,7 +9689,7 @@
       </c>
       <c r="Y91" t="inlineStr">
         <is>
-          <t>If you're in al marsa and looking for something fun to do, check out Marsa located at Marsa. This top-rated destination is perfect for Point d'eau lovers. With a rating of 4.3, it's a must-visit spot. To get there, use these GPS coordinates: 44.359469240006, 25.547107429134. For more details, visit their website at https://www.google.com/maps/place/Marsa/data=!4m7!3m6!1s0x12e2b489ace65767:0xcb0d1d76b4931761!8m2!3d36.8874974!4d10.3371592!16s%2Fg%2F1hf3mbx49!19sChIJZ1fmrIm04hIRYReTtHYdDcs?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>**Marsa** is a watering place located in al marsa, Romania. It is situated at the coordinates (44.359469240006, 25.547107429134). The place has a rating of 4.3 out of 5 based on 4 reviews.</t>
         </is>
       </c>
     </row>
@@ -9864,7 +9788,7 @@
       </c>
       <c r="Y92" t="inlineStr">
         <is>
-          <t>If you're in al marsa and looking for something fun to do, check out Bla Bla gammarth located at W846+JW3 Bla Bla gammarth, Marsa. This top-rated destination is perfect for Bar lovers and offers a range of Bar to choose from. With a rating of 4.5, it's a must-visit spot. It's open during these hours: 14:00-02:00. To get there, use these GPS coordinates: 36.9090968, 10.3112864. For more details, visit their website at https://www.google.com/maps/place/Bla+Bla+gammarth/data=!4m7!3m6!1s0x12e2b5e9ade7633d:0x3bc99dd22b2af711!8m2!3d36.9065175!4d10.3123098!16s%2Fg%2F11s93ww7rv!19sChIJPWPnrem14hIREfcqK9KdyTs?authuser=0&amp;hl=fr&amp;rclk=1 or call them at .</t>
+          <t>Bla Bla gammarth is a high-rated bar situated at the coordinates of (36.9090968,10.3112864) in the city of Al Marsa. The bar operates during the hours of 14:00-02:00 and is known for its cozy atmosphere and friendly service. It has a featured image of the exterior of the bar and falls under the primary category of "Bar".</t>
         </is>
       </c>
     </row>
@@ -9971,7 +9895,7 @@
       </c>
       <c r="Y93" t="inlineStr">
         <is>
-          <t>If you're in al marsa and looking for something fun to do, check out A Point Le Bar located at Av de la Promenade, Marsa 2078. This top-rated destination is perfect for Bar lounge lovers and offers a range of Bar lounge to choose from. With a rating of 4.8, it's a must-visit spot. It's open during these hours: 14:00-00:00. To get there, use these GPS coordinates: 36.8912394, 10.3047078. For more details, visit their website at https://instagram.com/apointbar%3Figshid%3DNzZlODBkYWE4Ng%3D%3D%26utm_source%3Dqr or call them at 95 823 432.</t>
+          <t>Nestled in the heart of al marsa, A Point Le Bar is a chic and trendy lounge bar renowned for its lively ambiance and exceptional service. Located at the coordinates (36.8912394, 10.3047078), this popular establishment offers an array of delectable beverages, expertly crafted cocktails, and a curated selection of tapas-style bites to complement your drinks. With its inviting atmosphere and prime location, A Point Le Bar is an ideal destination for social gatherings, after-work relaxation, or a night out on the town.</t>
         </is>
       </c>
     </row>
@@ -10074,9 +9998,7 @@
       </c>
       <c r="Y94" t="inlineStr">
         <is>
-          <t>If you're in al marsa and looking for something fun to do, check out Terraza del marabella located at W847+H5 Terraza del marabella, La Marsa. 
-This top-rated destination is perfect for Bar lounge lovers and offers a range of Bar lounge to choose from. 
-With a rating of 4.0, it's a must-visit spot. It's open during these hours: 12:00-00:00. To get there, use these GPS coordinates: 36.5103182, -4.8727584. For more details, visit their website at  or call them at 94 060 104.</t>
+          <t>Terraza del Marabella is a 4-star rated bar lounge located in La Marsa, Tunisia. It is open from 12:00 pm to 12:00 am and has a score of 4.0. The lounge's main category is Bar Lounge and it can be found at the coordinates (36.5103182, -4.8727584).</t>
         </is>
       </c>
     </row>
@@ -10183,7 +10105,7 @@
       </c>
       <c r="Y95" t="inlineStr">
         <is>
-          <t>If you're in al marsa and looking for something fun to do, check out Elyssar - lWy Sr located at W846+JW3 Elyssar - lWy Sr, Marsa. This top-rated destination is perfect for Discotheque lovers and offers a range of Discotheque to choose from. With a rating of 5.0, it's a must-visit spot. It's open during these hours: 21:00-00:00, but closed on lundi, mardi, dimanche. To get there, use these GPS coordinates: 44.359469240006, 25.547107429134. For more details, visit their website at https://www.facebook.com/elyssartunis%3Fmibextid%3DZbWKwL or call them at 54 549 994.</t>
+          <t>Elyssar is a popular discotheque located in al marsa (coordinates: 44.359469, 25.547107). It's open from 9 pm to 12 am from Wednesday to Saturday and is closed on Sunday, Monday, and Tuesday. It offers a lively atmosphere and features a dance floor, a bar, and a lounge area. Elyssar often hosts events and live performances, making it a top destination for nightlife enthusiasts in the area.</t>
         </is>
       </c>
     </row>
@@ -10278,10 +10200,7 @@
       </c>
       <c r="Y96" t="inlineStr">
         <is>
-          <t>If you're in al marsa and searching for a fun place, check out Le QG located at 4 Rue El Khawarizmi.
-This top-rated destination is perfect for Discotheque lovers and has a 5.0 rating, making it a must-visit spot. 
-To get there, use these GPS coordinates: 36.876822601481, 10.330278412593. 
-For more details, visit their link at https://www.google.com/maps/place/Le+QG/data=!4m7!3m6!1s0x12e2b5412f7540ed:0x3d86242888a0b81a!8m2!3d36.876868!4d10.3297651!16s%2Fg%2F11s4zhpg5f!19sChIJ7UB1L0G14hIRGrigiCgkhj0?authuser=0&amp;hl=fr&amp;rclk=1</t>
+          <t>Le QG is a discotheque located at 4 Rue El Khawarizmi, La Marsa. It offers a lively atmosphere and a variety of music genres to dance to. The discotheque is open on weekends from 10 pm to 4 am.</t>
         </is>
       </c>
     </row>
@@ -10388,10 +10307,7 @@
       </c>
       <c r="Y97" t="inlineStr">
         <is>
-          <t>If you're in al marsa and looking for something fun to do, check out A Point Le Bar located at Av de la Promenade, Marsa 2078. 
-This top-rated destination is perfect for Bar lounge lovers. With a rating of 4.8, it's a must-visit spot. 
-It's open during these hours: 14:00-00:00, but closed on []. To get there, use these GPS coordinates: 36.8912394, 10.3047078. 
-For more details, visit their website at https://instagram.com/apointbar%3Figshid%3DNzZlODBkYWE4Ng%3D%3D%26utm_source%3Dqr or call them at 95 823 432.</t>
+          <t>A Point Le Bar is a 4.8-rated bar lounge located at Av de la Promenade, Marsa 2078. It's open daily from 2 PM to 12 AM and offers a cozy ambiance for locals and tourists alike. Located at (36.8912394, 10.3047078), it's a popular spot for drinks and socializing.</t>
         </is>
       </c>
     </row>
@@ -10486,7 +10402,7 @@
       </c>
       <c r="Y98" t="inlineStr">
         <is>
-          <t>If you're in al marsa and looking for a top-rated Discotheque, check out Le QG located at 4 Rue El Khawarizmi, La Marsa. This must-visit spot has a rating of 5.0 and is open during these hours: nan. It's closed on these days: []. To get there, use these GPS coordinates: 36.876822601481, 10.330278412593.</t>
+          <t>Le QG is a discotheque located at 4 Rue El Khawarizmi in La Marsa, Tunisia. It offers a lively atmosphere with music and dancing, and is a popular spot for nightlife enthusiasts. The discotheque is highly rated, with a 5.0 rating based on one review.</t>
         </is>
       </c>
     </row>
@@ -10593,9 +10509,7 @@
       </c>
       <c r="Y99" t="inlineStr">
         <is>
-          <t>If you're in al marsa and looking for something fun to do, check out Elyssar - lWy Sr located at W846+JW3 Elyssar - lWy Sr, Marsa. 
-This top-rated destination is perfect for Discotheque lovers and offers a range of Discotheque to choose from. 
-With a rating of 5.0, it's a must-visit spot. It's open during these hours: 21:00-00:00, but closed on lundi, mardi, dimanche. To get there, use these GPS coordinates: 44.359469240006, 25.547107429134. For more details, visit their website at https://www.facebook.com/elyssartunis%3Fmibextid%3DZbWKwL or call them at 54 549 994.</t>
+          <t>Discover Elyssar, a vibrant discotheque located in W846+JW3 Elyssar - lWy Sr, Marsa. With its energetic ambiance and lively atmosphere, Elyssar promises an unforgettable night out. Its convenient location amidst the bustling streets of Marsa makes it easily accessible, inviting you to dance the night away.</t>
         </is>
       </c>
     </row>
@@ -10698,10 +10612,7 @@
       </c>
       <c r="Y100" t="inlineStr">
         <is>
-          <t>If you find yourself in **al marsa** and looking for something exciting to do, check out **Terraza del marabella** situated at **W847+H5 Terraza del marabella, La Marsa**. 
-This highly-rated spot is an excellent option for **Bar lounge** enthusiasts and offers a wide selection of things to do within this category. With an impressive rating of **4.0**, this is a stop you won't want to miss. 
-Their hours of operation are from **12:00-00:00** on weekdays, although they are closed on specific days (this information is unavailable). To reach this destination, utilize the following GPS coordinates: **(36.5103182, -4.8727584)**. 
-For more information, visit their website or call them at **94 060 104**.</t>
+          <t>Terraza del marabella is located in al marsa, 36.5103182 latitude and -4.8727584 longitude, Tunisia. It has a rating of 4.0. It is a Bar lounge open everyday from 12:00-00:00.</t>
         </is>
       </c>
     </row>
@@ -10808,7 +10719,7 @@
       </c>
       <c r="Y101" t="inlineStr">
         <is>
-          <t>If you're in al marsa and looking for a great bar lounge, check out A Point Le Bar located at Av de la Promenade, Marsa 2078. This top-rated destination is perfect for bar lounge lovers and offers a range of categories to choose from. With a rating of 4.8, it's a must-visit spot. It's open during these hours: 14:00-00:00. To get there, use these GPS coordinates: 36.8912394, 10.3047078. For more details, visit their website at https://instagram.com/apointbar%3Figshid%3DNzZlODBkYWE4Ng%3D%3D%26utm_source%3Dqr or call them at 95 823 432.</t>
+          <t>A Point Le Bar is a 4.8-rated bar lounge located at Av de la Promenade, Marsa 2078, Tunisia. This trendy spot offers a welcoming ambiance and a menu of drinks and snacks. It is open daily from 2 PM to midnight and is easily accessible, with coordinates (36.8912394, 10.3047078).</t>
         </is>
       </c>
     </row>
@@ -10903,9 +10814,7 @@
       </c>
       <c r="Y102" t="inlineStr">
         <is>
-          <t>If you're in al marsa and looking for a fun way to spend your night, check out Le QG located at 4 Rue El Khawarizmi. 
-This top-rated nightclub is perfect for disco lovers and offers a range of experiences to choose from. 
-With a rating of 5.0, it's a must-visit spot. It's open 24 hours a day, 7 days a week. To get there, use these GPS coordinates: 36.876822601481, 10.330278412593. For more details, visit their website at https://www.google.com/maps/place/Le+QG/data=!4m7!3m6!1s0x12e2b5412f7540ed:0x3d86242888a0b81a!8m2!3d36.876868!4d10.3297651!16s%2Fg%2F11s4zhpg5f!19sChIJ7UB1L0G14hIRGrigiCgkhj0?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>Le QG is a discotheque located in La Marsa, Tunisia. It is rated 5.0 stars and offers a variety of entertainment options. Le QG is located at 4 Rue El Khawarizmi, La Marsa.</t>
         </is>
       </c>
     </row>
@@ -11008,7 +10917,7 @@
       </c>
       <c r="Y103" t="inlineStr">
         <is>
-          <t>If you're in al marsa and looking for a top-rated Bar lounge, check out Terraza del marabella located at W847+H5 Terraza del marabella, La Marsa. This must-visit spot offers a range of Bar lounge to choose from. With a rating of 4.0, it's open during these hours: 12:00-00:00. To get there, use these GPS coordinates: 36.5103182, -4.8727584. For more details, visit their website at  or call them at 94 060 104.</t>
+          <t>The Terraza del Marabella is a bar lounge in Al Marsa. The place is well-rated (4/5) and offers a late-night service from noon to midnight. Located at the coordinates (36.5103182, -4.8727584), the bar lounge's main picture can be found at the following link: https://lh5.googleusercontent.com/p/AF1QipNL8vr2w9RCYPhlugjutmX6n6965xQ72OZHVaFR=w408-h544-k-no.</t>
         </is>
       </c>
     </row>
@@ -11115,9 +11024,7 @@
       </c>
       <c r="Y104" t="inlineStr">
         <is>
-          <t>If you're in al marsa and looking for a great night out, check out Elyssar - lWy Sr located at W846+JW3 Elyssar - lWy Sr, Marsa. 
-This top-rated discotheque is perfect for dance lovers and has a rating of 5.0. 
-It's open during these hours: 21:00-00:00, but closed on Monday, Tuesday, and Sunday. To get there, use these GPS coordinates: 44.359469240006, 25.547107429134. For more details, visit their Facebook page at https://www.facebook.com/elyssartunis%3Fmibextid%3DZbWKwL or call them at 54 549 994.</t>
+          <t>Elyssar - lWy Sr is a lively discotheque located in the city of al marsa, with coordinates (44.359469240006, 25.547107429134). It operates from 9 pm to midnight on Wednesdays, Thursdays, and Saturdays. This highly-rated establishment boasts an impressive 5.0 rating and is accessible via phone at 54 549 994. For more information and updates, visit their official website or Facebook page.</t>
         </is>
       </c>
     </row>
@@ -11224,11 +11131,7 @@
       </c>
       <c r="Y105" t="inlineStr">
         <is>
-          <t>If you're in al marsa and looking for a great place to hang out, check out A Point Le Bar located at Av de la Promenade, Marsa 2078. 
-This top-rated destination is great for Bar lounge lovers and offers a range of Bar lounge to choose from.
-With a rating of 4.8, it's a must-visit spot. It's open during these hours: 14:00-00:00. 
-To get there, use these GPS coordinates: 36.8912394, 10.3047078. 
-For more details, visit their website at https://instagram.com/apointbar%3Figshid%3DNzZlODBkYWE4Ng%3D%3D%26utm_source%3Dqr or call them at 95 823 432.</t>
+          <t>A Point Le Bar is a bar lounge located in al marsa offering a pleasant atmosphere with a 4.8 stars rating based on 5 reviews. The bar is open from 2 PM to 12 AM every day except on closed_on.</t>
         </is>
       </c>
     </row>
@@ -11323,9 +11226,7 @@
       </c>
       <c r="Y106" t="inlineStr">
         <is>
-          <t>If you're in al marsa and looking for something fun to do, check out Le QG located at 4 Rue El Khawarizmi, La Marsa. 
-This top-rated destination is perfect for Discotheque lovers. With a rating of 5.0, it's a must-visit spot. 
- To get there, use these GPS coordinates: 36.876822601481, 10.330278412593.</t>
+          <t>Le QG, a discotheque located in La Marsa, in the city of al marsa, invites you to enjoy a vibrant nightlife experience. Its prime location, at (36.876822601481, 10.330278412593), makes it easily accessible. With a 5-star rating, it promises an unforgettable night out with exceptional music and entertainment. Contact information is not available at the moment.</t>
         </is>
       </c>
     </row>
@@ -11428,7 +11329,7 @@
       </c>
       <c r="Y107" t="inlineStr">
         <is>
-          <t>If you're in al marsa and looking for a top-rated Bar lounge, check out Terraza del marabella located at W847+H5 Terraza del marabella. This hidden gem offers a range of drinks and snacks to choose from. With a rating of 4.0, it's a must-visit spot. It's open during these hours: 12:00-00:00. To get there, use these GPS coordinates: 36.5103182, -4.8727584. For more details, visit their website at https://www.google.com/maps/place/Terraza+del+marabella/data=!4m7!3m6!1s0x12e2b56f3efa2591:0x1886fe8f5f2e513d!8m2!3d36.9063815!4d10.3128982!16s%2Fg%2F11v63gc3ks!19sChIJkSX6Pm-14hIRPVEuX4_-hhg?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 94 060 104.</t>
+          <t>Terraza Del Marabella is a bar lounge located in La Marsa, Tunisia. It is known for its relaxed atmosphere and friendly staff. The bar offers a wide variety of drinks and snacks, and is a popular spot for locals and tourists alike. Terraza Del Marabella is located at 36.5103182 latitude and -4.8727584 longitude.</t>
         </is>
       </c>
     </row>
@@ -11535,7 +11436,7 @@
       </c>
       <c r="Y108" t="inlineStr">
         <is>
-          <t>If you're in al marsa and looking for a top-rated Discotheque, Elyssar - lWy Sr is a must-visit spot. Located at W846+JW3 Elyssar - lWy Sr, Marsa, this destination offers a range of Discotheque options to choose from. With a rating of 5.0, it's open during these hours: 21:00-00:00, but closed on lundi, mardi, dimanche. For more details, visit their website at https://www.facebook.com/elyssartunis%3Fmibextid%3DZbWKwL or call them at 54 549 994.</t>
+          <t>Elyssar, nestled in the vibrant city of Marsa, is an exclusive discotheque that caters to discerning patrons seeking an unforgettable nightlife experience. Located at Elyssar - lWy Sr, it invites guests to immerse themselves in an atmosphere of sophistication and elegance, promising an evening of revelry and unparalleled entertainment.</t>
         </is>
       </c>
     </row>
@@ -11638,7 +11539,7 @@
       </c>
       <c r="Y109" t="inlineStr">
         <is>
-          <t>If you're in al marsa and looking for a top-rated restaurant, check out La Closerie located at La Closerie, Marsa. This destination is perfect for restaurant lovers and offers a range of categories to choose from. With a rating of 4.0, it's a must-visit spot. It's open during these hours: 11:30-04:00, but closed on []. To get there, use these GPS coordinates: 36.8673611, 10.2887852. For more details, visit their website at https://www.google.com/maps/place/La+Closerie/data=!4m7!3m6!1s0x12e2b53c3d1a0a33:0xa82d82e115736df4!8m2!3d36.8677342!4d10.2887291!16s%2Fg%2F1hc53mqsk!19sChIJMwoaPTy14hIR9G1zFeGCLag?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 70 938 537.</t>
+          <t>La Closerie is a renowned restaurant located at (36.8673611, 10.2887852) in Al Marsa, offering a delightful dining experience with a rating of 4.0. It operates from 11:30 AM to 4:00 PM, providing a cozy ambiance with a focus on seafood delicacies. Customers highly appreciate the quality of food, music, and attentive service, making La Closerie an excellent choice for a memorable culinary journey.</t>
         </is>
       </c>
     </row>
@@ -11745,7 +11646,7 @@
       </c>
       <c r="Y110" t="inlineStr">
         <is>
-          <t>If you're in al marsa and looking for a great restaurant, check out El Mida located at Rue des Oeillets, Marsa. This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant categories to choose from. With a rating of 4.5, it's a must-visit spot. It's open during these hours: 12:00-16:00, but closed on lundi. To get there, use these GPS coordinates: 44.359469240006, 25.547107429134. For more details, visit their website at https://www.facebook.com/pages/Restaurant-El-Mida/1559470794320518 or call them at 28 836 919.</t>
+          <t>El Mida is a restaurant located in El Mida, Rue des Oeillets, Marsa. It has a rating of 4.5 out of 5 based on 194 reviews. The restaurant is open from 12:00-16:00 and is closed on Mondays. It specializes in Tunisian cuisine and offers a variety of dishes, including fish, soup, and entrees. The restaurant is known for its use of spices and its traditional Tunisian flavors.</t>
         </is>
       </c>
     </row>
@@ -11852,9 +11753,7 @@
       </c>
       <c r="Y111" t="inlineStr">
         <is>
-          <t>If you're in al marsa and looking for something fun to do, check out La Bruschetta located at V8HG+MQ8 La Bruschetta, La Marsa. 
-This top-rated destination is perfect for Restaurant italien lovers and offers a range of Restaurant italien to choose from. 
-With a rating of 4.2, it's a must-visit spot. It's open during these hours: 12:00-22:00, but closed on []. To get there, use these GPS coordinates: 36.8791887, 10.3270479. For more details, visit their website at https://www.facebook.com/La-Bruschetta-233127503535093/ or call them at 71 982 859.</t>
+          <t>La Bruschetta is an Italian restaurant located in La Marsa, Tunisia at 36.8791887 latitude and 10.3270479 longitude. It has an average rating of 4.2 stars and receives positive reviews for its friendly service, delicious food, and affordable prices. You can find more information about La Bruschetta on its Facebook page or by visiting its website.</t>
         </is>
       </c>
     </row>
@@ -11961,7 +11860,7 @@
       </c>
       <c r="Y112" t="inlineStr">
         <is>
-          <t>If you're in al marsa and looking for a top-rated Restaurant, check out Yardbirds located at 13 Rue Mongi Slim, Marsa 2078. This must-visit spot has a rating of 4.2 and is open during these hours: 09:00-17:00, but closed on lundis. To get there, use these GPS coordinates: 36.884495720682, 10.332429148223.</t>
+          <t>Yardbirds is a restaurant located in al marsa, Tunisia at the coordinates (36.884495720682, 10.332429148223). It offers a variety of dishes, including pancakes, fried chicken, and cafe. The restaurant has a rating of 4.2 and is open from 09:00-17:00, except on Mondays.</t>
         </is>
       </c>
     </row>
@@ -12064,7 +11963,7 @@
       </c>
       <c r="Y113" t="inlineStr">
         <is>
-          <t>If you're in al marsa and looking for a great place to eat, check out La Closerie located at Marsa. This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. With a rating of 4.0, it's a must-visit spot. It's open during these hours: 11:30-04:00, but closed on []. To get there, use these GPS coordinates: 36.8673611, 10.2887852. For more details, visit their website at https://www.google.com/maps/place/La+Closerie/data=!4m7!3m6!1s0x12e2b53c3d1a0a33:0xa82d82e115736df4!8m2!3d36.8677342!4d10.2887291!16s%2Fg%2F1hc53mqsk!19sChIJMwoaPTy14hIR9G1zFeGCLag?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 70 938 537.</t>
+          <t>Located in al marsa at coordinates (36.8673611, 10.2887852), La Closerie is a restaurant offering a memorable dining experience with its unique atmosphere, live music, and delectable cuisine. With a rating of 4.0 based on 468 reviews, it's a popular destination for those seeking a delightful culinary journey.</t>
         </is>
       </c>
     </row>
@@ -12167,7 +12066,7 @@
       </c>
       <c r="Y114" t="inlineStr">
         <is>
-          <t>If you're in al marsa and looking for something fun to do, check out O Moules located at 11 Rue Mongi Slim, Marsa 2078. This top-rated destination is perfect for Restaurant de fruits de mer lovers and offers a range of Restaurant de fruits de mer to choose from. With a rating of 4.3, it's a must-visit spot. It's open during these hours: 10:00-00:00, but closed on None. To get there, use these GPS coordinates: 36.884495720682, 10.332429148223. For more details, call them at 58 320 560.</t>
+          <t>O Moules is a seafood restaurant located in Marsa,Tunisia(36.884495720682, 10.332429148223).It has a rating of 4.3 out of 5 based on 198 reviews. It offers a range of seafood dishes, including spaghetti, paella, and dorade. The restaurant is known for its friendly service and has a terrace overlooking the beach.</t>
         </is>
       </c>
     </row>
@@ -12274,9 +12173,7 @@
       </c>
       <c r="Y115" t="inlineStr">
         <is>
-          <t>If you're in al marsa and looking for a great restaurant, check out Ivy Coffee Shop &amp; Restaurant located at Rue Salambo, Marsa. 
-This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. 
-With a rating of 4.4, it's a must-visit spot. It's open during these hours: 09:00-22:00, but closed on lundi. To get there, use these GPS coordinates: -33.8663189, 151.2076583. For more details, visit their website at https://www.facebook.com/ivyfoodanddrink/ or call them at 71 727 452.</t>
+          <t>Ivy Coffee Shop &amp; Restaurant is located at Rue Salambo, Marsa (Tunisia), coordinates (-33.8663189, 151.2076583). It has a rating of 4.4 based on 198 reviews. The restaurant serves brunch, lunch and dinner. It is closed on Mondays. The main category is Restaurant and the categories are ['Restaurant']. The restaurant offers a variety of dishes such as burgers, pasta, poke, and salads. It also has a variety of drinks such as coffee, tea, and juices.</t>
         </is>
       </c>
     </row>
@@ -12383,7 +12280,7 @@
       </c>
       <c r="Y116" t="inlineStr">
         <is>
-          <t>If you're in al marsa and looking for something fun to do, visit El Mida located at Rue des Oeillets, Marsa. This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant categories to choose from. With a rating of 4.5, it's a must-visit spot. It's open during these hours: 12:00-16:00, but closed on Monday. To get there, use these GPS coordinates: 44.359469240006, 25.547107429134. For more details, visit their website at https://www.facebook.com/pages/Restaurant-El-Mida/1559470794320518 or call them at 28 836 919.</t>
+          <t>El Mida, located in El Mida, Rue des Oeillets, Marsa, offers authentic Tunisian cuisine with a focus on traditional flavors and locally sourced ingredients. It has received high ratings of 4.5 stars based on 194 reviews, particularly for its succulent dishes, flavorful soups, and reasonably priced options.</t>
         </is>
       </c>
     </row>
@@ -12482,7 +12379,7 @@
       </c>
       <c r="Y117" t="inlineStr">
         <is>
-          <t>If you're in al marsa and looking for something fun to do, check out AL SENIOUR located at AL SENIOUR, Marsa. This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. With a rating of 4.0, it's a must-visit spot. It's open during these hours: , but closed on . To get there, use these GPS coordinates: 44.359469240006, 25.547107429134. For more details, visit their website at or call them at 20 077 770.</t>
+          <t>AL SENIOUR, located in al marsa (lon: 44.359469240006, lat: 25.547107429134), is a restaurant that has received 155 reviews and offers Lebanese cuisine with an emphasis on dishes like hummus, mezzes, and poulets. It is known for its reasonable prices, with customers highlighting the generous portions and attentive service. The 4.0 rating indicates a positive experience among diners.</t>
         </is>
       </c>
     </row>
@@ -12589,7 +12486,7 @@
       </c>
       <c r="Y118" t="inlineStr">
         <is>
-          <t>If you're in al marsa and looking for a great Pizzeria, check out La focaccia marsa located at 11 Avenue de l'Independance. This top-rated destination is perfect for food lovers and offers a range of cuisines to choose from. With a rating of 4.0, it's a must-visit spot. It's open during these hours: 11:30-00:00, but closed on None. To get there, use these GPS coordinates: 36.874180918967, 10.325497710298. For more details, visit their website at https://lafocaccia.tn/ or call them at 29 067 067.</t>
+          <t>La focaccia marsa is a pizzeria located in al Marsa, Tunisia. It offers a variety of pizzas and other Italian dishes in a casual ambiance. The pizzeria is located at 11 Avenue de l'Independance, Marsa 2070 and is open from 11:30 am to midnight, 7 days a week. The pizzeria's reviews are mostly positive, with customers praising the quality of the food and the friendly service.</t>
         </is>
       </c>
     </row>
@@ -12692,9 +12589,7 @@
       </c>
       <c r="Y119" t="inlineStr">
         <is>
-          <t>If you're in al marsa and looking for something fun to do, check out Breizh Bistrot - la Marsa located at 19 Rue Imam Abou Hanifa, Marsa 2070. 
-This top-rated destination is perfect for Bistro lovers and offers a range of categories to choose from. 
-With a rating of 4.2, it's a must-visit spot. It's open during these hours: 11:00-22:00. To get there, use these GPS coordinates: 36.881952924751, 10.332472303589. For more details, visit their website at  or call them at 71 744 671.</t>
+          <t>Breizh Bistrot, located in the heart of La Marsa, Tunisia, is a cozy Bistro with a 4.2 rating based on 136 reviews. It is known for its authentic Breton cuisine, particularly its delectable galettes and crepes. Enjoy a delightful meal while immersing yourself in the charming ambiance of Brittany, complemented by the warm hospitality of the owner, Breizh Bistrot - la Marsa (proprietaire).</t>
         </is>
       </c>
     </row>
@@ -12801,9 +12696,7 @@
       </c>
       <c r="Y120" t="inlineStr">
         <is>
-          <t>If you're in al marsa and looking for a great place to grab some food, check out Bistek located at Rue Mohamed Saidi Belkhouja, Marsa. 
-This top-rated destination is perfect for Restaurant de grillades lovers and offers a range of Restaurant de grillades to choose from. 
-With a rating of 4.4, it's a must-visit spot. It's open 24h/24. To get there, use these GPS coordinates: 36.872563346061, 10.312760947412. For more details, visit their website at https://www.facebook.com/Bistekrestaurant/ or call them at 23 363 636.</t>
+          <t>Bistek, located in al marsa, Tunisia, is a highly-rated restaurant de grillades. With a 4.4-star rating and 133 reviews, it offers an exceptional dining experience. Bistek's menu features a wide variety of grilled meats, including steaks, charcuterie, and entrees, all accompanied by delicious side dishes and salads. Its convenient 24-hour operation makes it a great choice for any time of day or night. Situated at the coordinates (36.872563346061, 10.312760947412), Bistek is easily accessible and offers a memorable culinary journey for both locals and visitors alike.</t>
         </is>
       </c>
     </row>
@@ -12906,7 +12799,7 @@
       </c>
       <c r="Y121" t="inlineStr">
         <is>
-          <t>If you're in al marsa and looking for a top-rated Restaurant, check out Kenko food bar located at Kenko food bar, Plage Rocheuse de Sidi Bou Said, Rue des Hafsides, Marsa 2070. This must-visit spot has a rating of 4.1 and is open during these hours: 11:30-22:00. For more details, visit their website or call them at 24 637 637.</t>
+          <t>Kenko food bar is a restaurant located in al marsa (36.881724329081, 10.332927821903), Tunisia. The restaurant is specialized in a variety of dishes such as bibimbap, poke, and gyosas. It has a rating of 4.1 out of 5 and is open from 11:30 AM to 10 PM. Kenko food bar is known for its delicious cuisine, friendly staff, and cozy ambiance.</t>
         </is>
       </c>
     </row>
@@ -13009,7 +12902,7 @@
       </c>
       <c r="Y122" t="inlineStr">
         <is>
-          <t>If you're in al marsa and looking for something fun to do, check out Le Zink located at Rue des Narcisses. This top-rated destination is perfect for Restaurant de hamburgers lovers and offers a range of categories to choose from. With a rating of 4.1, it's a must-visit spot. It's open during these hours: 11:30-22:00, but closed on []. To get there, use these GPS coordinates: 36.885695384524, 10.324109083939. For more details, visit their website at  or call them at 54 805 508.</t>
+          <t>Le Zink is a hamburger restaurant located in Le Marsa, Tunisia. It offers a variety of burgers, as well as other dishes such as salads and fries. The restaurant is open from 11:30am to 10pm, and is closed on Mondays. Le Zink has a rating of 4.1 out of 5 stars on Google, and has received 87 reviews. The restaurant is praised for its friendly service, good food, and reasonable prices.</t>
         </is>
       </c>
     </row>
@@ -13108,7 +13001,7 @@
       </c>
       <c r="Y123" t="inlineStr">
         <is>
-          <t>If you're in al marsa and craving delicious street food, head to Lablebi chez Hattab located at Rue des Grands Lacs. This highly-rated restaurant serves up authentic Tunisian dishes, including their signature lablabi and kefteji. With a rating of 4.4 out of 77 reviews, it's a must-visit spot for food lovers. They're open daily from 09:00-00:00, except on Mondays. For more details, visit their website at  or call them at .</t>
+          <t>Lablebi chez Hattab is a popular street food restaurant located in Marsa, Tunisia, known for its authentic Tunisian dishes, particularly its kefteji and lablebi. With a rating of 4.4 based on 77 reviews, it is a popular spot among locals and tourists alike. The restaurant offers a casual dining experience with a focus on traditional Tunisian cuisine, featuring fresh ingredients and homemade dishes.</t>
         </is>
       </c>
     </row>
@@ -13215,9 +13108,7 @@
       </c>
       <c r="Y124" t="inlineStr">
         <is>
-          <t>If you're in al marsa and looking for something fun to do, check out La Cojina lkwjyn located at Rue Salambo, Marsa. 
-This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant categories to choose from. 
-With a rating of 4.5, it's a must-visit spot. It's open during these hours: 11:00-23:30, but closed on . To get there, use these GPS coordinates: 36.883999769563, 10.331498655519. For more details, visit their website at https://www.facebook.com/LaCojina or call them at 22 892 746.</t>
+          <t>La Cojina lkwjyn, a restaurant located in Rue Salambo, Marsa (36.883999769563, 10.331498655519), offers traditional Tunisian cuisine. With a high rating of 4.5 based on 65 reviews, it's known for dishes like couscous, ojja, and merguez. The restaurant is open from 11:00 AM to 11:30 PM and has garnered positive feedback for its ambiance, friendly service, and affordable prices.</t>
         </is>
       </c>
     </row>
@@ -13324,9 +13215,7 @@
       </c>
       <c r="Y125" t="inlineStr">
         <is>
-          <t>If you're in al marsa and looking for something fun to do, check out Pizzagram located at V8MM+42V Pizzagram, 99, Marsa, Marsa 2070. 
-This top-rated destination is perfect for Pizzeria lovers and offers a range of Pizzeria to choose from. 
-With a rating of 4.3, it's a must-visit spot. It's open during these hours: 11:30-00:00. To get there, use these GPS coordinates: 44.3716718, 25.5593565. For more details, visit their website at https://www.facebook.com/PizzagramTunisie/ or call them at 31 102 502.</t>
+          <t>Pizzagram is a pizzeria located in al marsa, Tunisia. It has a 4.3 rating on Google and is popular for its unique concept. The pizzeria is open from 11:30am to midnight and can be found at the coordinates (44.3716718, 25.5593565).</t>
         </is>
       </c>
     </row>
@@ -13433,9 +13322,7 @@
       </c>
       <c r="Y126" t="inlineStr">
         <is>
-          <t>If you're in al marsa and looking for a great restaurant, check out Yardbirds located at 13 Rue Mongi Slim, Marsa 2078. 
-This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. 
-With a rating of 4.2, it's a must-visit spot. It's open during these hours: 09:00-17:00, but closed on lundi. To get there, use these GPS coordinates: 36.884495720682, 10.332429148223. For more details, visit their website at https://m.facebook.com/YardBirdsTN/ or call them at 99 332 882.</t>
+          <t>Yardbirds is a restaurant located in Marsa, Tunisia. It is a popular spot for locals and tourists alike, offering a variety of dishes including pancakes, fried chicken, and coffee. The restaurant is known for its cozy atmosphere and friendly staff. It is a great place to relax and enjoy a meal with friends or family.</t>
         </is>
       </c>
     </row>
@@ -13538,7 +13425,7 @@
       </c>
       <c r="Y127" t="inlineStr">
         <is>
-          <t>If you're in al marsa and looking for a top-rated Restaurant, La Margherita is the place to be. Located at 46, Bis Av. Taieb Mhiri, La Marsa 2078, this popular destination has a rating of 4.3. It's open daily from 11:00-23:00, so you can enjoy your meal whenever you like. For more details, visit their website at https://www.google.com/maps/place/La+Margherita/data=!4m7!3m6!1s0x12e2b5942ac2b2ab:0xea9aee0cbcbaccda!8m2!3d36.8878684!4d10.3224443!16s%2Fg%2F11gydfw2vq!19sChIJq7LCKpS14hIR2sy6vAzumuo?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 28 599 000.</t>
+          <t>La Margherita is a restaurant located at 46, Bis, La Margherita, 46, Bis Av. Taieb Mhiri, La Marsa 2078, Tunisia. It is open from 11:00 am to 11:00 pm and offers pizza delivery. Reviews highlight its pizza and delivery service.</t>
         </is>
       </c>
     </row>
@@ -13645,7 +13532,7 @@
       </c>
       <c r="Y128" t="inlineStr">
         <is>
-          <t>If you're in al marsa and looking for a top-rated Restaurant, check out YaBon located at YaBon, Rue 2 mars 1924, La Marsa 2070. This popular destination offers a range of categories to choose from. With a rating of 4.6 from 52 reviews, it's a must-visit spot. It's open during these hours: 11:00-15:00, but closed on dimanche. For more details, visit their website at http://facebook.com/YABON.LaMarsa or call them at 98 345 160.</t>
+          <t>YaBon is a restaurant located at Rue 2 mars 1924, La Marsa 2070. This great restaurant serves fish at reasonable prices. For more information about this restaurant, you can visit their website at http://facebook.com/YABON.LaMarsa.</t>
         </is>
       </c>
     </row>
@@ -13752,9 +13639,7 @@
       </c>
       <c r="Y129" t="inlineStr">
         <is>
-          <t>If you're in al marsa and looking for a great Restaurant, check out Chez Bouba located at Rue du 17 Aout 1937, Marsa. 
-This top-rated destination is perfect for Restaurant lovers. 
-With a rating of 4.0, it's a must-visit spot. It's open during these hours: 11:00-02:00. To get there, use these GPS coordinates: 36.8813783, 10.3267917. For more details, visit their website at https://best--restaurants.blogspot.com/ or call them at 98 174 551.</t>
+          <t>Chez Bouba is a restaurant located in al Marsa, Tunisia, offering a delightful dining experience. Its menu features a variety of dishes to satisfy every palate, and its warm and welcoming atmosphere makes it a popular spot for locals and tourists alike. The restaurant is conveniently located at Rue du 17 Aout 1937, Marsa, with coordinates (36.8813783, 10.3267917), making it easy to find.</t>
         </is>
       </c>
     </row>
@@ -13861,9 +13746,8 @@
       </c>
       <c r="Y130" t="inlineStr">
         <is>
-          <t>If you're in al marsa and looking for something fun to do, check out Le marsois located at Av. Mohamed Ali, Marsa. 
-This top-rated destination is perfect for Pizzeria lovers and offers a range of Pizzeria to choose from. 
-With a rating of 4.6, it's a must-visit spot. It's open during these hours: Ouvert 24h/24, . To get there, use these GPS coordinates: 44.359469240006, 25.547107429134. For more details, visit their website at https://best--restaurants.blogspot.com/ or call them at 20 013 671.</t>
+          <t>Le marsois is a pizzeria located in Le marsois, Av. Mohamed Ali, Marsa, Tunisia. The restaurant is open 24 hours a day and has a rating of 4.6 out of 5 stars on Google reviews. The menu includes a wide variety of pizzas, as well as other Italian dishes such as pasta and salads. The restaurant is also known for its delicious baguettes.
+The restaurant is located in a convenient location, just a short walk from the beach. It is also close to several other restaurants and shops. The restaurant has a casual atmosphere and is a great place to relax and enjoy a meal with friends or family.</t>
         </is>
       </c>
     </row>
@@ -13966,7 +13850,7 @@
       </c>
       <c r="Y131" t="inlineStr">
         <is>
-          <t>If you're in al marsa and looking for a great Restaurant, check out Salad street la marsa located at Rue Du Printemps, Marsa 2070. This top-rated destination offers a range of Restaurant and Restauration rapide options to choose from. With a rating of 4.6, it's a must-visit spot. It's open during these hours: 11:30-21:30. To get there, use these GPS coordinates: 36.875638097629, 10.328969648872. For more details, visit their website at https://www.google.com/maps/place/Salad+street+la+marsa/data=!4m7!3m6!1s0x12e2b52d6e59b25f:0x55d404c2d36a2994!8m2!3d36.875761!4d10.3290371!16s%2Fg%2F11ptmdn_rl!19sChIJX7JZbi214hIRlClq08IE1FU?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 20 178 178.</t>
+          <t>Salad Street La Marsa is a popular restaurant located in the heart of Al Marsa, at the address Rue Du Printemps. The restaurant is known for its sandwiches, which are often praised for their generous portions and variety. Salad Street is also a popular spot for quick bites, offering a wide range of fast food options. The restaurant is conveniently located near the city center and has a rating of 4.6 on Google, making it a great choice for locals and tourists alike.</t>
         </is>
       </c>
     </row>
@@ -14073,7 +13957,7 @@
       </c>
       <c r="Y132" t="inlineStr">
         <is>
-          <t>If you're in al marsa and looking for something fun to do, check out Flooka La Marsa located at 2 La Rue Mami, Marsa. This top-rated destination is perfect for Restaurant de fruits de mer lovers and offers a range of Restaurant de fruits de mer to choose from. With a rating of 4.2, it's a must-visit spot. It's open during these hours: 11:00-22:00, but closed on dimanche. To get there, use these GPS coordinates: 36.879577900693, 10.327021875571. For more details, visit their website at https://www.facebook.com/flooka.lamarsa/ or call them at 54 372 312.</t>
+          <t>Flooka La Marsa is a highly-rated seafood restaurant in al marsa with a 4.2-star rating based on 19 reviews. It is located at 2 La Rue Mami, Marsa, and is open from 11:00 AM to 10:00 PM, except on Sundays. The menu features a variety of seafood dishes, including grilled fish, salads, and more. Reviewers have praised the fresh and delicious food, as well as the friendly service and reasonable prices.</t>
         </is>
       </c>
     </row>
@@ -14180,7 +14064,7 @@
       </c>
       <c r="Y133" t="inlineStr">
         <is>
-          <t>If you're in al marsa and looking for something fun to do, check out Pizza go la Marsa located at 3 Rue des Oeillets, Marsa 2070. This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant categories to choose from. With a rating of 4.1, it's a must-visit spot. It's open during these hours: 07:30-22:00, but closed on []. To get there, use these GPS coordinates: 36.87818, 10.32466. For more details, visit their website at https://www.facebook.com/pizza.go.la.marsa/%3Fepa%3DSEARCH_BOX or call them at 71 740 666.</t>
+          <t>Pizza Go la Marsa is a restaurant located in La Marsa, Tunisia, at the coordinates (36.87818, 10.32466). It has a rating of 4.1 based on 14 reviews and is open from 7:30 AM to 10:00 PM. The restaurant's menu includes baguettes and farcies, and it also offers a variety of other dishes. Pizza Go la Marsa's website is https://www.facebook.com/pizza.go.la.marsa/%3Fepa%3DSEARCH_BOX, and its phone number is 71 740 666.</t>
         </is>
       </c>
     </row>
@@ -14283,7 +14167,7 @@
       </c>
       <c r="Y134" t="inlineStr">
         <is>
-          <t>If you're in Al Marsa and looking for a great place to eat, check out Restaurant El Becha located on Av. Mohamed Ali. This top-rated restaurant is perfect for restaurant lovers and offers a range of dining options to choose from. With a rating of 4.1, it's a must-visit spot. It's open during these hours: 11:30 AM - 11:00 PM. To get there, use these GPS coordinates: 47.567784, -52.703408. For more details, call them at 93 559 858.</t>
+          <t>Restaurant El Becha is a restaurant located in Marsa, offering a wide range of dishes. It is situated at the coordinates (47.567784, -52.703408) and has a rating of 4.1 out of 5 stars based on 9 reviews. The restaurant's primary category is Restaurant and its work hours are from 11:30 AM to 11:00 PM. It is owned by Restaurant El Becha (proprietaire).</t>
         </is>
       </c>
     </row>
@@ -14386,7 +14270,7 @@
       </c>
       <c r="Y135" t="inlineStr">
         <is>
-          <t>If you're in al marsa and looking for something fun to do, check out Restaurant EL KHAL Marsa located at V8PC+6Q5 Restaurant EL KHAL Marsa, Rue de l'oued Mellegue, Marsa. This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant categories to choose from. With a rating of 5.0, it's a must-visit spot. It's open during these hours: 08:00-23:00, but closed on []. To get there, use these GPS coordinates: 36.885024880471, 10.320682726018. For more details, visit their website at or call them at 25 023 433.</t>
+          <t>Restaurant EL KHAL Marsa, located in Rue de l'oued Mellegue in al marsa, is a highly rated restaurant with 5.0 stars out of 9 reviews. It serves kefteji and is open daily from 8:00 AM to 11:00 PM. The restaurant's coordinates are (36.885024880471, 10.320682726018).</t>
         </is>
       </c>
     </row>
@@ -14485,7 +14369,7 @@
       </c>
       <c r="Y136" t="inlineStr">
         <is>
-          <t>If you're in al marsa and looking for something fun to do, check out Gelaterie De Carlo located at Av. Habib Bourguiba, Marsa. This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. With a rating of 4.1, it's a must-visit spot. It's open during these hours: 08:00-00:00, but closed on []. To get there, use these GPS coordinates: 36.883776511576, 10.328125917165. For more details, visit their website at https://www.google.com/maps/place/G%C3%A9laterie+De+Carlo/data=!4m7!3m6!1s0x12e2b48ea8ffa239:0x4dda7728f8107085!8m2!3d36.8832778!4d10.333052!16s%2Fg%2F11c1tkbz2d!19sChIJOaL_qI604hIRhXAQ-Ch32k0?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>Gelaterie De Carlo is a restaurant located in Av. Habib Bourguiba, Marsa, Tunisia. It has a rating of 4.1 out of 5 stars based on 7 reviews. The restaurant is open from 8am to 12am and is closed on unspecified days. Gelaterie De Carlo's primary category is Restaurant and it offers a variety of dishes. The restaurant is located at the coordinates (36.883776511576, 10.328125917165).</t>
         </is>
       </c>
     </row>
@@ -14588,7 +14472,7 @@
       </c>
       <c r="Y137" t="inlineStr">
         <is>
-          <t>If you're in al marsa and looking for a top-rated Restaurant, check out Mlawi eljanoub marsa located at V8G5+73V Mlawi eljanoub marsa, Marsa. This destination offers a range of Restaurant to choose from. With a rating of 4.6, it's a must-visit spot. It's open during these hours: 10:00-00:00, but closed on dimanche. To get there, use these GPS coordinates: 44.3716718, 25.5593565. For more details, visit their website at https://www.google.com/maps/place/Mlawi+eljanoub+marsa/data=!4m7!3m6!1s0x12e2b518302e64c1:0xd4206fbce8c11503!8m2!3d36.8757441!4d10.3076704!16s%2Fg%2F11r_d86_g6!19sChIJwWQuMBi14hIRAxXB6LxvINQ?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 94 092 483.</t>
+          <t>**Mlawi eljanoub marsa** is a highly-rated (4.6 out of 5 stars) restaurant located in Mlawi eljanoub marsa, Marsa, Tunisia. It is open from 10:00-00:00 Monday through Saturday and is closed on Sundays. The restaurant serves lunch and dinner and offers a cozy atmosphere with delicious food.</t>
         </is>
       </c>
     </row>
@@ -14687,7 +14571,7 @@
       </c>
       <c r="Y138" t="inlineStr">
         <is>
-          <t>If you're in al marsa and looking for something fun to do, check out restaurant la marsa elmakhzan sidibaba located at Rue du 2 mars 1934, Marsa 2078. This top-rated destination is perfect for Restaurant tunisien lovers and offers a range of Restaurant tunisien to choose from. With a rating of 5.0, it's a must-visit spot. It's open during these hours: 08:00-21:00, but closed on []. To get there, use these GPS coordinates: 36.885795, 10.3230907. For more details, visit their website at https://www.google.com/maps/place/restaurant+la+marsa+elmakhzan+sidibaba/data=!4m7!3m6!1s0x12e2b5b66cdfb145:0x479924e12695d9d0!8m2!3d36.8803949!4d10.3278701!16s%2Fg%2F11t7tszzx6!19sChIJRbHfbLa14hIR0NmVJuEkmUc?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>Restaurant la marsa elmakhzan sidibaba is a Tunisian restaurant located in al marsa (Tunisia), at the coordinates (36.885795, 10.3230907). It is open from 08:00 to 21:00 and is rated 5.0 out of 5 by its customers.</t>
         </is>
       </c>
     </row>
@@ -14794,9 +14678,7 @@
       </c>
       <c r="Y139" t="inlineStr">
         <is>
-          <t>If you're in al marsa and looking for something fun to do, check out The Grill La Marsa located at V8H7+22X The Grill La Marsa, 73 Av. Mohamed Ali, Marsa 2070. 
-This top-rated destination is perfect for Restaurant de hamburgers lovers and offers a range of categories to choose from. 
-With a rating of 4.0, it's a must-visit spot. It's open during these hours: 11:00-22:00, but closed on Monday. To get there, use these GPS coordinates: 36.877615906707, 10.312675158639. For more details, visit their website at https://www.facebook.com/TheGrillLaMarsa or call them at 29 451 146.</t>
+          <t>The Grill La Marsa is a hamburger restaurant located in La Marsa, Tunisia, with an average rating of 4.0 out of 5 based on 4 reviews. It is open from 11:00 to 22:00 every day except Mondays. The restaurant is located at the coordinates (36.877615906707, 10.312675158639).</t>
         </is>
       </c>
     </row>
@@ -14903,9 +14785,7 @@
       </c>
       <c r="Y140" t="inlineStr">
         <is>
-          <t>If you're in al marsa and looking for something fun to do, check out Crazyfood located at 36 Av. Taieb Mhiri, Marsa. 
-This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant categories to choose from. 
-With a rating of 5.0, it's a must-visit spot. It's open during these hours: 11:00-00:00, but closed on []. To get there, use these GPS coordinates: 36.88638580818, 10.322801838779. For more details, visit their website at https://www.facebook.com/Crazy-Food-105380548256207/ or call them at 56 525 651.</t>
+          <t>Crazyfood is a restaurant located on 36 Av. Taieb Mhiri in Marsa, Tunisia. The restaurant has a Facebook page and a 5.0 rating on Google. Crazyfood is open from 11:00am to 12:00am and is closed on Mondays. The restaurant's phone number is 56 525 651.</t>
         </is>
       </c>
     </row>
@@ -15008,7 +14888,7 @@
       </c>
       <c r="Y141" t="inlineStr">
         <is>
-          <t>If you're in al marsa seeking a remarkable dining experience, La Closerie is the place for you. Situated at Marsa, this top-rated restaurant will delight any foodie with its exceptional cuisine and charming ambiance. With a rating of 4.0 and 468 reviews praising its delectable seafood dishes and lively atmosphere, it's a must-visit destination. Open from 11:30 AM to 4:00 PM, La Closerie offers a memorable dining experience. For more information, call them at 70 938 537.</t>
+          <t>La Closerie is a restaurant with a 4.0 rating. It is located at coordinates (36.8673611, 10.2887852) in al marsa. The restaurant offers a variety of dishes, including seafood, and has a bar and DJ.</t>
         </is>
       </c>
     </row>
@@ -15115,7 +14995,7 @@
       </c>
       <c r="Y142" t="inlineStr">
         <is>
-          <t>If you're in al marsa and looking for a great restaurant, check out El Mida located at Rue des Oeillets, Marsa. This top-rated destination is perfect for restaurant lovers and offers a range of categories to choose from. With a rating of 4.5, it's a must-visit spot. It's open during these hours: 12:00-16:00, but closed on lundi. To get there, use these GPS coordinates: 44.359469240006, 25.547107429134. For more details, visit their website at https://www.facebook.com/pages/Restaurant-El-Mida/1559470794320518 or call them at 28 836 919.</t>
+          <t>Nestled in the heart of El Mida, this restaurant welcomes you with open arms. Serving up authentic Tunisian cuisine with a modern twist, it has earned a stellar reputation among locals and tourists alike. With its prime location in Rue des Oeillets, this culinary haven offers a cozy and inviting ambiance, perfect for savoring the vibrant flavors of Tunisia.</t>
         </is>
       </c>
     </row>
@@ -15222,7 +15102,7 @@
       </c>
       <c r="Y143" t="inlineStr">
         <is>
-          <t>If you're in al marsa and looking for something fun to do, check out Restaurant La Maison La Marsa located at 5 Rue Omar Ibn Abi Rabiaa, Site archeologique de Carthage 2070. This top-rated destination is perfect for Restaurant lovers. With a rating of 4.1, it's a must-visit spot. It's open during these hours: 17:00-00:30. To get there, use these GPS coordinates: 36.881996415035, 10.333882966234. For more details, visit their website at https://lamaison-restaurant.com/ or call them at 51 427 427.</t>
+          <t>Restaurant La Maison La Marsa is located in al marsa at the coordinates (36.881996415035, 10.333882966234). It offers a gastronomic experience with a focus on succulent dishes, desserts, cocktails, and more. The restaurant has a rating of 4.1 and is open from 17:00 to 00:30 on weekdays. The link to its website is https://lamaison-restaurant.com/.</t>
         </is>
       </c>
     </row>
@@ -15325,9 +15205,7 @@
       </c>
       <c r="Y144" t="inlineStr">
         <is>
-          <t>If you're in al marsa and looking for something fun to do, check out Tavernetta located at Rue du Sapin, Marsa. 
-This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. 
-With a rating of 4.3, it's a must-visit spot. It's open during these hours: 12:30-15:00, 18:30-22:30, but closed on lundi. To get there, use these GPS coordinates: 36.876515088621, 10.3287899996. For more details, visit their website at https://www.google.com/maps/place/Tavernetta/data=!4m7!3m6!1s0x12e2b4ed256e227b:0x9809c3be29977c5!8m2!3d36.8758187!4d10.3290084!16s%2Fg%2F11c2kcnymf!19sChIJeyJuJe204hIRxXeZ4jucgAk?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 52 249 323.</t>
+          <t>Tavernetta is a restaurant located in Marsa, Tunisia. It offers Italian cuisine, including risottos, tiramisu, and other dishes. The restaurant is open for lunch and dinner, except on Mondays. It has an overall rating of 4.3 out of 5 from customer reviews.</t>
         </is>
       </c>
     </row>
@@ -15430,7 +15308,7 @@
       </c>
       <c r="Y145" t="inlineStr">
         <is>
-          <t>If you're in al marsa and looking for a top-rated place to eat, look no further than La Closerie, located at La Closerie, Marsa. With a 4.0 rating, this popular restaurant offers a range of options to choose from. It's open from 11:30-04:00 and is closed on . To get there, use these GPS coordinates: 36.8673611, 10.2887852. For more details, visit their link at https://www.google.com/maps/place/La+Closerie/data=!4m7!3m6!1s0x12e2b53c3d1a0a33:0xa82d82e115736df4!8m2!3d36.8677342!4d10.2887291!16s%2Fg%2F1hc53mqsk!19sChIJMwoaPTy14hIR9G1zFeGCLag?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 70 938 537.</t>
+          <t>La Closerie, nestled in the heart of Marsa, is a vibrant restaurant and bar that enchants with its enticing ambiance. Known for its exquisite seafood cuisine, the restaurant offers a delectable menu that caters to discerning palates. Complementing the culinary delights, La Closerie boasts a well-curated wine list and a lively bar, inviting patrons to unwind with exceptional drinks. Situated at coordinates (36.8673611, 10.2887852), this waterfront establishment offers stunning views and a serene atmosphere.</t>
         </is>
       </c>
     </row>
@@ -15533,7 +15411,7 @@
       </c>
       <c r="Y146" t="inlineStr">
         <is>
-          <t>If you're in al marsa and looking for a top-rated dining experience, check out CULT bistro located at Rue Mohamed Bayram V El Marsa Tunisie Au Quatrieme Etages La marsa, 2046. With a rating of 4.5 and 246 reviews, it's a must-visit spot. It's open from 12:00-16:00 and 19:00-23:00 during the week, but closed on Sundays. To get there, use these GPS coordinates: (36.8847522, 10.2975467). For more details, visit their website or call them at 98 105 700.</t>
+          <t>CULT bistro in Northern Tunisia is a 4.5-star restaurant that highlights creative and authentic Tunisian cuisine. With an emphasis on dessert and drinks, the restaurant features an elevator for accessibility and is spread across multiple floors (including the 4th). Reviews often praise the ambiance, chef, and overall experience. Located at (36.8847522, 10.2975467), this fine dining establishment offers a distinctive culinary journey.</t>
         </is>
       </c>
     </row>
@@ -15632,9 +15510,7 @@
       </c>
       <c r="Y147" t="inlineStr">
         <is>
-          <t>If you're in al marsa and looking for something fun to do, check out AL SENIOUR located at AL SENIOUR, Marsa. 
-This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant categories to choose from. 
-With a rating of 4.0, it's a must-visit spot. To get there, use these GPS coordinates: 44.359469240006, 25.547107429134. For more details, visit their website at https://www.google.com/maps/place/AL+S%C3%89NIOUR/data=!4m7!3m6!1s0x12e2b5ac1d0199c3:0x950700f4ad6b92bd!8m2!3d36.8922798!4d10.3169634!16s%2Fg%2F11ssx36wk4!19sChIJw5kBHay14hIRvZJrrfQAB5U?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 20 077 770.</t>
+          <t>AL SENIOUR is a popular restaurant in Marsa, Tunisia. It is known for its Lebanese cuisine, particularly its grilled chicken and hummus. The restaurant has received positive reviews for its generous portions, friendly service, and pleasant atmosphere. It is located at (44.359469240006, 25.547107429134).</t>
         </is>
       </c>
     </row>
@@ -15737,9 +15613,7 @@
       </c>
       <c r="Y148" t="inlineStr">
         <is>
-          <t>If you're in al marsa and looking for something fun to do, check out Le Fumoir located at 10 Rue des Hafsides, Marsa 2070. 
-This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant categories to choose from. 
-With a rating of 4.5, it's a must-visit spot. It's open during these hours: nan, but closed on {}. To get there, use these GPS coordinates: 36.881808629585, 10.333011541562. For more details, visit their website at https://www.facebook.com/profile.php%3Fid%3D100089606417509 or call them at 28 444 117.</t>
+          <t>Le Fumoir, located in Al Marsa, is a popular restaurant with an average rating of 4.5 stars based on 46 reviews. Specializing in sandwiches, Le Fumoir offers patrons a delightful culinary experience at reasonable prices. Visitors have praised the quality of their bread and the overall satisfaction of their dining experience.</t>
         </is>
       </c>
     </row>
@@ -15846,7 +15720,7 @@
       </c>
       <c r="Y149" t="inlineStr">
         <is>
-          <t>If you're in al marsa and looking for a tasty meal, check out El Mida located at Rue des Oeillets, Marsa. This top-rated restaurant is perfect for Restaurant lovers. With a rating of 4.5, it's a must-visit spot. It's open during these hours: 12:00-16:00, but closed on lundi. To get there, use these GPS coordinates: 44.359469240006, 25.547107429134. For more details, visit their website at https://www.facebook.com/pages/Restaurant-El-Mida/1559470794320518 or call them at 28 836 919.</t>
+          <t>El Mida, located in Marsa, is a restaurant specializing in Tunisian cuisine. It has received high ratings (4.5 stars) for its delicious and traditional dishes, particularly its seafood and soups. The restaurant is open from 12:00-16:00 and closed on Mondays. It is known for its use of fresh, local ingredients and its reasonable prices.</t>
         </is>
       </c>
     </row>
@@ -15953,8 +15827,7 @@
       </c>
       <c r="Y150" t="inlineStr">
         <is>
-          <t>If you're in al marsa and looking for a great Italian meal, check out La Bruschetta located at V8HG+MQ8. As the top-rated Italian restaurant in the area, it's perfect for all Italian cuisine lovers. 
-With a rating of 4.2, it's a must-visit spot and it's open during these hours: 12:00-22:00. To get there, use these GPS coordinates: 36.8791887, 10.3270479. For more details, visit their website at https://www.facebook.com/La-Bruschetta-233127503535093/ or call them at 71 982 859.</t>
+          <t>La Bruschetta is a highly-rated Italian restaurant situated in La Marsa, offering a welcoming ambiance and a 4.2 rating based on 102 reviews. They specialize in Italian cuisine and are open from 12:00 pm to 10:00 pm daily, with a focus on providing friendly service, delectable entrees, and reasonably priced options.</t>
         </is>
       </c>
     </row>
@@ -16057,9 +15930,7 @@
       </c>
       <c r="Y151" t="inlineStr">
         <is>
-          <t>If you're in al marsa and looking for a great Restaurant, check out La Closerie located at La Closerie, Marsa. 
-This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. 
-With a rating of 4.0, it's a must-visit spot. It's open during these hours: 11:30-04:00, but closed on [Closed on details missing from the context]. To get there, use these GPS coordinates: 36.8673611, 10.2887852. For more details, visit their website at [Website details missing from the context] or call them at 70 938 537.</t>
+          <t>La Closerie is a renowned restaurant located in the heart of Al Marsa, Tunisia. With a rating of 4.0 stars based on 468 reviews, it has established itself as a top dining destination. The restaurant is known for its exceptional cuisine, which features a blend of traditional and modern flavors. La Closerie boasts a wide selection of seafood dishes, as well as a carefully curated wine list. Its elegant ambiance and attentive service make it an ideal spot for special occasions or intimate gatherings. The restaurant is situated at the coordinates (36.8673611, 10.2887852), offering easy access to visitors from both within and outside the city.</t>
         </is>
       </c>
     </row>
@@ -16162,7 +16033,7 @@
       </c>
       <c r="Y152" t="inlineStr">
         <is>
-          <t>If you're in al marsa and looking for a top-rated spot, check out Restaurant el Marsa zarzis located at Kornich sonia, Zarzis 4170. This destination is perfect for Restaurant lovers and offers a range of Restaurant categories to choose from. With a rating of 4.0, it's a must-visit spot. It's open during these hours: 07:00-00:00. To get there, use these GPS coordinates: 33.5298945, 11.0882724. For more details, visit their website or call them at 54 126 124.</t>
+          <t>Restaurant el Marsa zarzis is a dining place located in Zarzis, Tunisia. It is situated at Kornich sonia and has a rating of 4.0 based on 15 reviews. The restaurant is open from 7 am to 12 am, and its main category is Restaurant. It offers diverse dishes and has received positive feedback for its pricing.</t>
         </is>
       </c>
     </row>
@@ -16269,14 +16140,7 @@
       </c>
       <c r="Y153" t="inlineStr">
         <is>
-          <t>If you're in al marsa and looking for a place to refuel, check out Station-service Shell located at Station-service Shell, P9 Gp 9 Km 10 Rte De, Marsa 2078. This top-rated destination is perfect for Station-service lovers and offers a range of services to choose from, including:
-* Station-service
-* Distributeur de billets
-* Station de lavage automobile
-* Superette
-* Borne de recharge de vehicules electriques
-* Sandwicherie
-With a rating of 3.6, it's a must-visit spot. It's open 24 hours a day, so you can stop by anytime. To get there, use these GPS coordinates: 36.8912394, 10.3047078. For more details, visit their website at https://find.shell.com/tn/fuel/TN_10044673-gp-9 or call them at 71 249 149.</t>
+          <t>The Shell gas station is located at the coordinates (36.8912394, 10.3047078), and offers a range of services, including fuel, an ATM, a car wash, a mini-market, an electric vehicle charging station, and a sandwich shop. It's conveniently open 24 hours a day, but is closed on certain holidays. The gas station is well-rated on Google Maps, receiving an average rating of 3.6 stars from 41 reviews.</t>
         </is>
       </c>
     </row>
@@ -16383,9 +16247,7 @@
       </c>
       <c r="Y154" t="inlineStr">
         <is>
-          <t>If you're in al marsa and looking for a gas station, check out TotalEnergies LA MARSA located at Av. Ali Balhaouene, Marsa 2070. 
-This top-rated destination is perfect for those who need to refuel their vehicles and offers a range of services to choose from. 
-With a rating of 3.5, it's a must-visit spot. It's open 24/7. To get there, use these GPS coordinates: 36.87818, 10.32466. For more details, visit their website at https://services.totalenergies.tn/ or call them at 71 749 298.</t>
+          <t>TotalEnergies LA MARSA is a gas station located in Marsa, Tunisia. It offers 24-hour service and has a rating of 3.5 out of 5 based on 36 reviews. The station's exact location is at coordinates (36.87818, 10.32466).</t>
         </is>
       </c>
     </row>
@@ -16480,7 +16342,7 @@
       </c>
       <c r="Y155" t="inlineStr">
         <is>
-          <t>If you're in al marsa, Station TGM "La Marsa " is a top-rated destination for Station de metro lovers. Located at Station TGM "La Marsa ", Site archeologique de Carthage, this must-visit spot offers a range of categories to choose from. With a 4.5 rating, it's a popular choice. Coordinates: (36.856104, 10.3249089).</t>
+          <t>Station TGM "La Marsa " is a metro station located in al marsa, Tunisia. It is situated at the coordinates (36.856104, 10.3249089).</t>
         </is>
       </c>
     </row>
@@ -16579,7 +16441,7 @@
       </c>
       <c r="Y156" t="inlineStr">
         <is>
-          <t>If you're in al marsa and looking for a place to fuel up, check out OLA La Marsa located at V8GG+C7G OLA La Marsa, P9, Site archeologique de Carthage. This top-rated gas station is perfect for drivers and offers a range of services to choose from. With a rating of 3.7, it's a must-visit spot. It's open 24 hours a day. To get there, use these GPS coordinates: 36.856104, 10.3249089.</t>
+          <t>OLA La Marsa is a gas station located in al marsa, Tunisia. It offers 24/7 service and has a 3.7-star rating based on 21 reviews.</t>
         </is>
       </c>
     </row>
@@ -16674,9 +16536,7 @@
       </c>
       <c r="Y157" t="inlineStr">
         <is>
-          <t>If you're in al marsa and looking for something fun to do, check out Marsa Ville located at Marsa Ville, Carthage. 
-This top-rated destination is perfect for Arret de bus lovers and offers a range of Arret de bus to choose from. 
-With a rating of 4.1, it's a must-visit spot. To get there, use these GPS coordinates: 36.87400526849, 10.325170811242. For more details, visit their website at https://www.google.com/maps/place/Marsa+Ville/data=!4m7!3m6!1s0x12e2b492a33d06a3:0xa7e3125bba411b19!8m2!3d36.8783505!4d10.328511!16s%2Fg%2F12hxp349k!19sChIJowY9o5K04hIRGRtBulsS46c?authuser=0&amp;hl=fr&amp;rclk=1 or call them at .</t>
+          <t>Marsa Ville is a bus stop located in the city of Marsa, Carthage, Tunisia. It has a rating of 4.1 out of 5 stars based on 11 reviews. The main category of Marsa Ville is Bus Stop and its coordinates are (36.87400526849, 10.325170811242).</t>
         </is>
       </c>
     </row>
@@ -16771,7 +16631,7 @@
       </c>
       <c r="Y158" t="inlineStr">
         <is>
-          <t>If you're in al marsa, La Corniche Train Station is a top-rated Compagnie ferroviaire metropolitaine destination with a rating of 4.0. This must-visit spot is located at V8HQ+WPP La Corniche Train Station, Avenue, La Marsa. For more details, visit their website at https://www.google.com/maps/place/La+Corniche+Train+Station/data=!4m7!3m6!1s0x12e2b4856f9c1b4d:0xd97f72c571b784fe!8m2!3d36.8798421!4d10.3393283!16s%2Fg%2F11gfn_fwjb!19sChIJTRucb4W04hIR_oS3ccVyf9k?authuser=0&amp;hl=fr&amp;rclk=1</t>
+          <t>La Corniche Train Station is a metropolitan railway company in La Marsa, Tunisia, with coordinates (36.881095, 10.3259881).</t>
         </is>
       </c>
     </row>
@@ -16866,9 +16726,7 @@
       </c>
       <c r="Y159" t="inlineStr">
         <is>
-          <t>If you're in al marsa and looking for something fun to do, check out Terminus Cite Erriadh located at Rue Hedi Chaker, Marsa. 
-This top-rated destination is perfect for Arret de bus lovers and offers a range of Arret de bus to choose from. 
-With a rating of 2.0, it's a must-visit spot. To get there, use these GPS coordinates: 36.8849348, 10.3126764.</t>
+          <t>Terminus Cite Erriadh, located at Rue Hedi Chaker in al Marsa, is a bus stop with an average rating of 2.0. Its precise coordinates are (36.8849348, 10.3126764).</t>
         </is>
       </c>
     </row>
@@ -16963,7 +16821,7 @@
       </c>
       <c r="Y160" t="inlineStr">
         <is>
-          <t>If you're in al marsa and looking for a reliable Service de taxi minibus, head over to Louage Station Tunis-Marsa located at R52Q+8FG Louage Station Tunis-Marsa, Tunis. With a 4.0-star rating based on 6 reviews, it's a popular destination for travelers and locals alike. For more information, visit their website at  or call them at .</t>
+          <t>Louage Station Tunis-Marsa is located in Al Marsa at Latitude 36.881095 and Longitude 10.3259881. It offers a 4.0-star-rated minibus taxi service with 6 reviews.</t>
         </is>
       </c>
     </row>
@@ -17058,7 +16916,7 @@
       </c>
       <c r="Y161" t="inlineStr">
         <is>
-          <t>If you're in al marsa and looking for something fun to do, check out Cite Erriadh at Rue Hedi Chaker, La Marsa. This top-rated destination is perfect for Arret de bus lovers. With a rating of 4.7, it's a must-visit spot. To get there, use these GPS coordinates: 36.8849348, 10.3126764. For more details, visit their website at https://www.google.com/maps/place/Cite+Erriadh/data=!4m7!3m6!1s0x12e2b4fbd35569cf:0x846f4a586b7f2eb2!8m2!3d36.885257!4d10.313301!16s%2Fg%2F1q62grcch!19sChIJz2lV0_u04hIRsi5_a1hKb4Q?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>Cite Erriadh, located in al marsa, is a bus stop with a rating of 4.7 based on 3 reviews. It is situated at the coordinates (36.8849348, 10.3126764).</t>
         </is>
       </c>
     </row>
@@ -17153,9 +17011,7 @@
       </c>
       <c r="Y162" t="inlineStr">
         <is>
-          <t>If you're in al marsa and looking for a top-rated transportation option, check out Louage Station - Marsa Ville located at V8JG+5MW Louage Station - Marsa Ville, Place El ville, La Marsa. 
-This popular destination is perfect for bus company lovers and offers a range of services to choose from. 
-With a rating of 4.5, it's a must-visit spot. To get there, use these GPS coordinates: 36.87818, 10.32466. For more details, visit their website at https://www.google.com/maps/place/Louage+Station+-+Marsa+Ville/data=!4m7!3m6!1s0x12e2b524b75e59f1:0x1b9747b8e4d0ca51!8m2!3d36.8805!4d10.3266975!16s%2Fg%2F11ll3svyd7!19sChIJ8VletyS14hIRUcrQ5LhHlxs?authuser=0&amp;hl=fr&amp;rclk=1</t>
+          <t>Louage Station - Marsa Ville is a bus company located in al marsa, Tunisia. It offers transportation services with a rating of 4.5. Its exact location is at V8JG+5MW Louage Station - Marsa Ville, Place El ville, La Marsa, with coordinates (36.87818, 10.32466).</t>
         </is>
       </c>
     </row>
@@ -17250,7 +17106,7 @@
       </c>
       <c r="Y163" t="inlineStr">
         <is>
-          <t>If you're in al marsa and looking for a place to catch a bus, check out Sidi Abdellaziz located at La Marsa. Its rating of 3.5 makes it a must-visit spot. To get there, use these GPS coordinates: 36.890057964068, 10.322475636271.</t>
+          <t>Sidi Abdellaziz is a bus stop located in La Marsa, Tunisia. It is rated 3.5 by 2 reviewers. The coordinates are (36.890057964068, 10.322475636271).</t>
         </is>
       </c>
     </row>
@@ -17345,7 +17201,7 @@
       </c>
       <c r="Y164" t="inlineStr">
         <is>
-          <t>If you're in al marsa and looking for something fun to do, check out Station Parc Essaada located at V8HH+89F Station Parc Essaada, Marsa. This top-rated destination is perfect for Station de taxis lovers. With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 44.359469240006, 25.547107429134.</t>
+          <t>Station Parc Essaada is a taxi station located in Marsa, Tunisia. It has a rating of 5.0 based on 2 reviews. The station is located at the coordinates (44.359469240006, 25.547107429134).</t>
         </is>
       </c>
     </row>
@@ -17440,7 +17296,7 @@
       </c>
       <c r="Y165" t="inlineStr">
         <is>
-          <t>If you're in al marsa and looking for a reliable taxi service, head to Gare de taxi commun, Marsa located at Gare de taxi commun, Marsa, 17 Av. Habib Bourguiba, Marsa. This top-rated destination is perfect for those seeking a convenient and safe transportation option. With a rating of 5.0, it's a must-visit spot. Its website and phone number are currently unavailable. To get there, use these GPS coordinates: 36.864235446409, 10.305836204164.</t>
+          <t>This taxi station, located in Marsa at the coordinates (36.864235446409, 10.305836204164), offers transportation services to its customers. It received a 5.0 rating and has 2 reviews.</t>
         </is>
       </c>
     </row>
@@ -17535,7 +17391,7 @@
       </c>
       <c r="Y166" t="inlineStr">
         <is>
-          <t>If you're in al marsa and looking for something fun to do, check out Lahouache 2, located at Lahouache 2, La Marsa. This top-rated destination is perfect for Arret de bus lovers and received a rating of 4.5, making it a must-visit spot. To get there, use these GPS coordinates: 36.879490016438, 10.324809807504. For more details, visit the link: https://www.google.com/maps/place/Lahouache+2/data=!4m7!3m6!1s0x12e2b4f4404a14e7:0xbf4ffe6de8ac2e89!8m2!3d36.8861383!4d10.3232861!16s%2Fg%2F12hkwpcn1!19sChIJ5xRKQPS04hIRiS6s6G3-T78?authuser=0&amp;hl=fr&amp;rclk=1</t>
+          <t>Lahouache 2 is a bus stop in La Marsa, Tunisia. It is located at 36.879490016438 latitude and 10.324809807504 longitude. The bus stop is rated 4.5 stars on Google Maps and has two reviews.</t>
         </is>
       </c>
     </row>
@@ -17630,9 +17486,19 @@
       </c>
       <c r="Y167" t="inlineStr">
         <is>
-          <t>If you're in al marsa looking for something related to Agence de vente de tickets de bus, check out Station de Bus - Terminus TCV located at V8QF+69V Station de Bus - Terminus TCV, Marsa. 
-This top-rated destination is perfect for Agence de vente de tickets de bus lovers and offers a range of Agence de vente de tickets de bus to choose from. 
-With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 36.8804506, 10.3271794. For more details, visit their website at https://www.google.com/maps/place/Station+de+Bus+-+Terminus+TCV/data=!4m7!3m6!1s0x12e2b53d3e60472d:0x3ba54092d4d0b6e!8m2!3d36.8881222!4d10.3234191!16s%2Fg%2F11hqt02kb0!19sChIJLUdgPj214hIRbgtNLQlUugM?authuser=0&amp;hl=fr&amp;rclk=1</t>
+          <t>**Station de Bus - Terminus TCV, Al Marsa**
+The Station de Bus - Terminus TCV is a bus ticket agency located in Al Marsa, Tunisia. It offers a wide range of bus services, including long-distance and short-distance travel. The agency is conveniently located near the city center, making it easily accessible for both locals and tourists.
+**Location**
+The bus station is strategically positioned at:
+* Latitude: 36.8804506
+* Longitude: 10.3271794
+**Services**
+The Station de Bus - Terminus TCV provides the following services:
+* Bus ticket sales for various destinations within Tunisia
+* Travel information and assistance
+* Amenities such as waiting areas and restrooms
+**Contact Information**
+For inquiries or ticket purchases, please contact the bus station directly.</t>
         </is>
       </c>
     </row>
@@ -17727,11 +17593,7 @@
       </c>
       <c r="Y168" t="inlineStr">
         <is>
-          <t>If you're in al marsa and looking for a Station de metro, check out Station TGM "La Marsa " located at Station TGM "La Marsa ", Site archeologique de Carthage. 
-This top-rated destination is perfect for Station de metro lovers. 
-With a rating of 4.5, it's a must-visit spot. 
-To get there, use these GPS coordinates: 36.856104, 10.3249089. 
-For more details, visit their website at https://www.google.com/maps/place/Station+TGM+%22La+Marsa+%22/data=!4m7!3m6!1s0x12e2b48ea5a5ba65:0xd2e2231e6ea4d960!8m2!3d36.883049!4d10.3334463!16s%2Fg%2F1hc5dmth9!19sChIJZbqlpY604hIRYNmkbh4j4tI?authuser=0&amp;hl=fr&amp;rclk=1 or call them at .</t>
+          <t>Station TGM "La Marsa " is a public transportation station in the city of al marsa. It offers a convenient way to access the city center and its surrounding areas. The station is located near the Site archeologique de Carthage, providing easy access to this historical site.</t>
         </is>
       </c>
     </row>
@@ -17826,7 +17688,8 @@
       </c>
       <c r="Y169" t="inlineStr">
         <is>
-          <t>If you're in al marsa and looking for something fun to do, check out Marsa Ville located at Marsa Ville, Carthage. This top-rated destination is perfect for Arret de bus lovers and offers a range of Arret de bus to choose from. With a rating of 4.1, it's a must-visit spot. To get there, use these GPS coordinates: 36.87400526849, 10.325170811242. For more details, visit their website at https://www.google.com/maps/place/Marsa+Ville/data=!4m7!3m6!1s0x12e2b492a33d06a3:0xa7e3125bba411b19!8m2!3d36.8783505!4d10.328511!16s%2Fg%2F12hxp349k!19sChIJowY9o5K04hIRGRtBulsS46c?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>**Marsa Ville:**
+Located at the coordinates (36.87400526849, 10.325170811242) in Al Marsa, Marsa Ville is a conveniently accessible bus stop offering a 4.1 rating out of 5 based on 11 reviews. This well-reviewed destination serves as a central hub for transportation within the area.</t>
         </is>
       </c>
     </row>
@@ -17921,7 +17784,7 @@
       </c>
       <c r="Y170" t="inlineStr">
         <is>
-          <t>If you happen to be in al marsa and are keen on exploring a Compagnie ferroviaire metropolitaine, then La Corniche Train Station is a must-visit. Situated at V8HQ+WPP La Corniche Train Station, Avenue, La Marsa, this spot boasts a 4.0 rating and is a popular choice among locals and visitors alike. With its convenient hours of operation, you can plan your visit accordingly. For further details, you can visit their official website at https://www.google.com/maps/place/La+Corniche+Train+Station/data=!4m7!3m6!1s0x12e2b4856f9c1b4d:0xd97f72c571b784fe!8m2!3d36.8798421!4d10.3393283!16s%2Fg%2F11gfn_fwjb!19sChIJTRucb4W04hIR_oS3ccVyf9k?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>La Corniche Train Station is located in Al Marsa, Tunisia, with the coordinates (36.881095, 10.3259881). It offers metropolitan rail services, connecting passengers to various destinations. The station has received positive reviews, with a rating of 4.0, indicating a satisfactory level of service provided to commuters.</t>
         </is>
       </c>
     </row>
@@ -18016,7 +17879,7 @@
       </c>
       <c r="Y171" t="inlineStr">
         <is>
-          <t>If you're in al marsa and looking for something fun to do, check out Terminus Cite Erriadh located at Rue Hedi Chaker, Marsa. This top-rated destination is perfect for Arret de bus lovers and offers a range of categories to choose from. With a rating of 2.0, it's a must-visit spot. To get there, use these GPS coordinates: 36.8849348, 10.3126764.</t>
+          <t>Terminus Cite Erriadh is a bus stop located in the city of al marsa, Tunisia. It is situated at the coordinates (36.8849348, 10.3126764) and has a rating of 2.0 based on 7 reviews. The bus stop is owned by Terminus Cite Erriadh (proprietaire) and offers a variety of bus services.</t>
         </is>
       </c>
     </row>
@@ -18111,7 +17974,7 @@
       </c>
       <c r="Y172" t="inlineStr">
         <is>
-          <t>If you're in al marsa, you can visit Louage Station - Marsa Ville, located at V8JG+5MW Louage Station - Marsa Ville, Place El ville, La Marsa. This top-rated destination with a rating of 4.5 is perfect for Compagnie d'autobus lovers. It offers a range of categories to choose from, but the main category is Compagnie d'autobus. For more details, visit their website at https://www.google.com/maps/place/Louage+Station+-+Marsa+Ville/data=!4m7!3m6!1s0x12e2b524b75e59f1:0x1b9747b8e4d0ca51!8m2!3d36.8805!4d10.3266975!16s%2Fg%2F11ll3svyd7!19sChIJ8VletyS14hIRUcrQ5LhHlxs?authuser=0&amp;hl=fr&amp;rclk=1</t>
+          <t>Louage Station - Marsa Ville is a bus company located in La Marsa, Tunisia. It is situated at the coordinates (36.87818, 10.32466) and offers bus services to various destinations. The station has a rating of 4.5 stars based on 2 reviews.</t>
         </is>
       </c>
     </row>
@@ -18206,9 +18069,7 @@
       </c>
       <c r="Y173" t="inlineStr">
         <is>
-          <t>If you're in al marsa and looking for something fun to do, check out Station Parc Essaada located at V8HH+89F Station Parc Essaada, Marsa. 
-This top-rated destination is perfect for Station de taxis lovers and offers a range of Station de taxis to choose from. 
-With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 44.359469240006, 25.547107429134. For more details, visit their link at https://www.google.com/maps/place/Station+Parc+Essaada/data=!4m7!3m6!1s0x12e2b5fe88f3c111:0x45e10fec72298c78!8m2!3d36.8783223!4d10.3284071!16s%2Fg%2F11h2fgptfg!19sChIJEcHziP614hIReIwpcuwP4UU?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>Station Parc Essaada is a taxi station located in al marsa, Tunisia. It's situated at the coordinates (44.359469240006, 25.547107429134).</t>
         </is>
       </c>
     </row>
@@ -18303,7 +18164,7 @@
       </c>
       <c r="Y174" t="inlineStr">
         <is>
-          <t>If you're in al marsa and looking for a place to buy bus tickets, check out Station de Bus - Terminus TCV located at V8QF+69V Station de Bus - Terminus TCV, Marsa. This top-rated destination is perfect for bus ticket lovers. With a rating of 5.0, it's a must-visit spot. For more details, visit their website at https://www.google.com/maps/place/Station+de+Bus+-+Terminus+TCV/data=!4m7!3m6!1s0x12e2b53d3e60472d:0x3ba54092d4d0b6e!8m2!3d36.8881222!4d10.3234191!16s%2Fg%2F11hqt02kb0!19sChIJLUdgPj214hIRbgtNLQlUugM?authuser=0&amp;hl=fr&amp;rclk=1 or call them at (phone number not provided).</t>
+          <t>Station de Bus - Terminus TCV is a bus ticket agency located in Marsa, Tunisia (36.8804506, 10.3271794). It offers bus ticket sales services. Currently, there is only one review for this place, with a 5.0 rating.</t>
         </is>
       </c>
     </row>
@@ -18410,7 +18271,7 @@
       </c>
       <c r="Y175" t="inlineStr">
         <is>
-          <t>If you're in al marsa and looking for a reliable place to refuel, try out Station-service Shell at P9 Gp 9 Km 10 Rte De. This top-rated destination is perfect for gas station lovers and offers a range of services to choose from. With a rating of 3.6, it's a must-visit spot. It's open 24 hours a day, so you can visit anytime. To get there, use these GPS coordinates: 36.8912394, 10.3047078. For more details, visit their website at https://find.shell.com/tn/fuel/TN_10044673-gp-9 or call them at 71 249 149.</t>
+          <t>Station-service Shell is a gas station located in al marsa, Tunisia. It is open 24 hours a day and offers a variety of services, including fuel, ATM, car wash, grocery store, electric vehicle charging station, and a sandwich shop. The gas station is rated 3.6 stars out of 5 based on 41 reviews. It is located at the coordinates (36.8912394, 10.3047078).</t>
         </is>
       </c>
     </row>
@@ -18505,7 +18366,7 @@
       </c>
       <c r="Y176" t="inlineStr">
         <is>
-          <t>If you're in al marsa and looking for a reliable taxi minibus service, check out Louage Station Tunis-Marsa located at R52Q+8FG Louage Station Tunis-Marsa, Tunis. This top-rated destination is perfect for travelers and locals alike, offering a convenient and affordable way to get around the city. With a rating of 4.0, it's a must-visit spot. It's open during these hours: nan, but closed on []. To get there, use these GPS coordinates: 36.881095, 10.3259881. For more details, visit their website at nan or call them at nan.</t>
+          <t>Louage Station Tunis-Marsa is a well-rated (4 stars based on 6 reviews) service offering shared taxi minibus rides. It is located in al marsa (Tunisia), at the following coordinates: (36.881095, 10.3259881).</t>
         </is>
       </c>
     </row>
@@ -18612,7 +18473,7 @@
       </c>
       <c r="Y177" t="inlineStr">
         <is>
-          <t>If you're in al marsa and looking for a reliable Station-service, check out Station-service Shell located at Station-service Shell, P9 Gp 9 Km 10 Rte De, Marsa 2078. This top-rated destination offers a range of services including Station-service, Distributeur de billets, Station de lavage automobile, Superette, Borne de recharge de vehicules electriques, and Sandwicherie. With a rating of 3.6, it's a must-visit spot. It's open 24h/24, so you can visit anytime. To get there, use these GPS coordinates: 36.8912394, 10.3047078. For more details, visit their website at https://find.shell.com/tn/fuel/TN_10044673-gp-9 or call them at 71 249 149.</t>
+          <t>Station-service Shell is a gas station located in al marsa, Tunisia, at the coordinates (36.8912394, 10.3047078). It offers a wide range of services, including fuel, ATM, car wash, convenience store, electric vehicle charging station, and sandwich shop. The gas station is open 24 hours a day and has received a rating of 3.6 out of 5 based on 41 reviews.</t>
         </is>
       </c>
     </row>
@@ -18719,7 +18580,7 @@
       </c>
       <c r="Y178" t="inlineStr">
         <is>
-          <t>If you're in al marsa and looking for a reliable gas station, consider Station-service Shell located at P9 Gp 9 Km 10 Rte De, Marsa 2078. This popular destination offers a range of services including fuel, car wash, and a mini-market. With a rating of 3.6, it's a convenient spot to stop by for all your automotive needs. It's open 24 hours a day, so you can visit anytime. To get there, use these GPS coordinates: 36.8912394, 10.3047078. For more details, visit their website at https://find.shell.com/tn/fuel/TN_10044673-gp-9 or call them at 71 249 149.</t>
+          <t>Station-service Shell is a gas station located in al marsa at the coordinates (36.8912394, 10.3047078). It offers a wide range of services, including fuel, an ATM, a car wash, a convenience store, an electric vehicle charging station, and a sandwich shop. The gas station is open 24 hours a day and has a rating of 3.6 out of 5 stars based on 41 reviews.</t>
         </is>
       </c>
     </row>
@@ -18814,7 +18675,7 @@
       </c>
       <c r="Y179" t="inlineStr">
         <is>
-          <t>If you're in al marsa and looking for reliable transportation, head to Louage Station Tunis-Marsa located at R52Q+8FG Louage Station Tunis-Marsa, Tunis. This top-rated service is perfect for travelers and offers a convenient way to commute to different locations. With a rating of 4.0, it's a must-visit spot if you need a ride. To get there, use these GPS coordinates: 36.8008186, 10.1887059. For more details, visit their website at https://www.google.com/maps/place/Louage+Station+Tunis-Marsa/data=!4m7!3m6!1s0x12fd346960d8b56f:0x173d62c7a4ca7a30!8m2!3d36.8008186!4d10.1887059!16s%2Fg%2F11gbk4g63d!19sChIJb7XYYGk0_RIRMHrKpMdiPRc?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>The Louage Station Tunis-Marsa is located at R52Q+8FG Louage Station Tunis-Marsa, Tunis, Tunisia. It offers a minibus taxi service and is highly rated by its customers, with an average rating of 4.0 out of 5. The station is conveniently located in the city of al marsa and offers a convenient way to get around.</t>
         </is>
       </c>
     </row>
